--- a/data/trans_orig/P05A05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Provincia-trans_orig.xlsx
@@ -10,7 +10,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2007" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2012" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9015,2832 +9014,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
-    <col width="14" customWidth="1" min="15" max="15"/>
-    <col width="14" customWidth="1" min="16" max="16"/>
-    <col width="14" customWidth="1" min="17" max="17"/>
-    <col width="14" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="14" customWidth="1" min="20" max="20"/>
-    <col width="14" customWidth="1" min="21" max="21"/>
-    <col width="14" customWidth="1" min="22" max="22"/>
-    <col width="14" customWidth="1" min="23" max="23"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Población según si en el barrio donde vive hay espacios verdes suficientes [En 2023 se pregunta en negativo] en 2023 (tasa de respuesta: 99,84%)</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
-      <c r="O1" s="3" t="n"/>
-      <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="R1" s="3" t="n"/>
-      <c r="S1" s="3" t="n"/>
-      <c r="T1" s="3" t="n"/>
-      <c r="U1" s="3" t="n"/>
-      <c r="V1" s="3" t="n"/>
-      <c r="W1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="S2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="T2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="V2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="n"/>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
-      <c r="W3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Almería</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>10142</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>5101</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>18624</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0.03180733306099939</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0.0159973325688035</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0.05841080979639766</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>9015</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>5293</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>14472</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>0.02852359784024321</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>0.01674682688679364</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>0.0457892755824986</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>19157</v>
-      </c>
-      <c r="S4" s="5" t="n">
-        <v>12387</v>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>27988</v>
-      </c>
-      <c r="U4" s="6" t="n">
-        <v>0.03017266652870436</v>
-      </c>
-      <c r="V4" s="6" t="n">
-        <v>0.01950922764152613</v>
-      </c>
-      <c r="W4" s="6" t="n">
-        <v>0.0440823780982562</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>23355</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>15137</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>35475</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0.07325020544273811</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0.04747438292744154</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0.1112609840161981</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>11582</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>7239</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>17978</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>0.03664485245107885</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>0.02290267514148435</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>0.05688265291693047</v>
-      </c>
-      <c r="Q5" s="5" t="n">
-        <v>45</v>
-      </c>
-      <c r="R5" s="5" t="n">
-        <v>34937</v>
-      </c>
-      <c r="S5" s="5" t="n">
-        <v>25249</v>
-      </c>
-      <c r="T5" s="5" t="n">
-        <v>47734</v>
-      </c>
-      <c r="U5" s="6" t="n">
-        <v>0.0550278027776012</v>
-      </c>
-      <c r="V5" s="6" t="n">
-        <v>0.03976838396589077</v>
-      </c>
-      <c r="W5" s="6" t="n">
-        <v>0.07518201997186087</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>297</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>285348</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>271709</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>294886</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>0.8949424614962626</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>0.852166606407478</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0.9248553829407306</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>502</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>295464</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>288178</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>300918</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>0.934831549708678</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>0.9117804444464248</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>0.9520887639606911</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>799</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>580812</v>
-      </c>
-      <c r="S6" s="5" t="n">
-        <v>566148</v>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>592789</v>
-      </c>
-      <c r="U6" s="6" t="n">
-        <v>0.9147995306936945</v>
-      </c>
-      <c r="V6" s="6" t="n">
-        <v>0.8917037386958677</v>
-      </c>
-      <c r="W6" s="6" t="n">
-        <v>0.9336648528330448</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>331</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>318845</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>318845</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>318845</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>538</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>316061</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>316061</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>316061</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>869</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>634906</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>634906</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>634906</v>
-      </c>
-      <c r="U7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Cádiz</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>29168</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>18870</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>45762</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>0.05496600962692197</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>0.03555976258874686</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0.08623842672743706</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>43</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>33726</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>24292</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>44956</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>0.0617132103575681</v>
-      </c>
-      <c r="O8" s="6" t="n">
-        <v>0.04445137564711739</v>
-      </c>
-      <c r="P8" s="6" t="n">
-        <v>0.08226273886760078</v>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>63</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>62893</v>
-      </c>
-      <c r="S8" s="5" t="n">
-        <v>47597</v>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>81593</v>
-      </c>
-      <c r="U8" s="6" t="n">
-        <v>0.05838924376790956</v>
-      </c>
-      <c r="V8" s="6" t="n">
-        <v>0.0441886153863298</v>
-      </c>
-      <c r="W8" s="6" t="n">
-        <v>0.07574941776845334</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>95</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>127061</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>106781</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>151246</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0.2394460596072277</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0.2012285549530242</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0.2850214998551272</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>178</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>141617</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>123880</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>161775</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>0.2591369843134471</v>
-      </c>
-      <c r="O9" s="6" t="n">
-        <v>0.2266817826247199</v>
-      </c>
-      <c r="P9" s="6" t="n">
-        <v>0.2960239183438964</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>273</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>268678</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>240257</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>299418</v>
-      </c>
-      <c r="U9" s="6" t="n">
-        <v>0.24943637239217</v>
-      </c>
-      <c r="V9" s="6" t="n">
-        <v>0.2230501949465123</v>
-      </c>
-      <c r="W9" s="6" t="n">
-        <v>0.2779744712620235</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>267</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>374418</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>346269</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>395312</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0.7055879307658502</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>0.6525411392827443</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0.744962694154523</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>496</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>371151</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>351509</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>391267</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>0.6791498053289847</v>
-      </c>
-      <c r="O10" s="6" t="n">
-        <v>0.6432081378914802</v>
-      </c>
-      <c r="P10" s="6" t="n">
-        <v>0.715958907701755</v>
-      </c>
-      <c r="Q10" s="5" t="n">
-        <v>763</v>
-      </c>
-      <c r="R10" s="5" t="n">
-        <v>745569</v>
-      </c>
-      <c r="S10" s="5" t="n">
-        <v>711757</v>
-      </c>
-      <c r="T10" s="5" t="n">
-        <v>777650</v>
-      </c>
-      <c r="U10" s="6" t="n">
-        <v>0.6921743838399205</v>
-      </c>
-      <c r="V10" s="6" t="n">
-        <v>0.6607832858274265</v>
-      </c>
-      <c r="W10" s="6" t="n">
-        <v>0.721957436929705</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>382</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>530647</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>530647</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>530647</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>717</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>546494</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>546494</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>546494</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>1099</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>1077141</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>1077141</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>1077141</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Córdoba</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>32449</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>23201</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>45577</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0.103043993752372</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0.07367577699689659</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0.1447313953586453</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>42</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>28879</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>21187</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>38782</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>0.08145104580076799</v>
-      </c>
-      <c r="O12" s="6" t="n">
-        <v>0.05975653395951694</v>
-      </c>
-      <c r="P12" s="6" t="n">
-        <v>0.1093816262095112</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>61328</v>
-      </c>
-      <c r="S12" s="5" t="n">
-        <v>49023</v>
-      </c>
-      <c r="T12" s="5" t="n">
-        <v>76385</v>
-      </c>
-      <c r="U12" s="6" t="n">
-        <v>0.09160814191400758</v>
-      </c>
-      <c r="V12" s="6" t="n">
-        <v>0.07322730131653962</v>
-      </c>
-      <c r="W12" s="6" t="n">
-        <v>0.1140993069597763</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>48</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>37950</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>28602</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>48774</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0.1205127734827089</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0.09082799645941393</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0.1548818882132824</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>72</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>51484</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>40720</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>63904</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>0.1452088739102982</v>
-      </c>
-      <c r="O13" s="6" t="n">
-        <v>0.1148481696448509</v>
-      </c>
-      <c r="P13" s="6" t="n">
-        <v>0.1802372424437642</v>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>120</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <v>89435</v>
-      </c>
-      <c r="S13" s="5" t="n">
-        <v>74521</v>
-      </c>
-      <c r="T13" s="5" t="n">
-        <v>106785</v>
-      </c>
-      <c r="U13" s="6" t="n">
-        <v>0.1335920874378143</v>
-      </c>
-      <c r="V13" s="6" t="n">
-        <v>0.111315158033562</v>
-      </c>
-      <c r="W13" s="6" t="n">
-        <v>0.1595083225462</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>276</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>244508</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>230187</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>258741</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>0.7764432327649191</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>0.7309666345345521</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>0.8216386122707836</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>419</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>274191</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>260219</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>286425</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>0.7733400802889338</v>
-      </c>
-      <c r="O14" s="6" t="n">
-        <v>0.7339330153166129</v>
-      </c>
-      <c r="P14" s="6" t="n">
-        <v>0.8078449147584718</v>
-      </c>
-      <c r="Q14" s="5" t="n">
-        <v>695</v>
-      </c>
-      <c r="R14" s="5" t="n">
-        <v>518698</v>
-      </c>
-      <c r="S14" s="5" t="n">
-        <v>498191</v>
-      </c>
-      <c r="T14" s="5" t="n">
-        <v>536680</v>
-      </c>
-      <c r="U14" s="6" t="n">
-        <v>0.7747997706481782</v>
-      </c>
-      <c r="V14" s="6" t="n">
-        <v>0.7441671214789284</v>
-      </c>
-      <c r="W14" s="6" t="n">
-        <v>0.8016603199143689</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>359</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>314908</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>314908</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>314908</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>533</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>354554</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>354554</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>354554</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>892</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>669461</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>669461</v>
-      </c>
-      <c r="T15" s="5" t="n">
-        <v>669461</v>
-      </c>
-      <c r="U15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Granada</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>27984</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>19051</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>40806</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0.07499560082400973</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0.05105592401731993</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0.1093574965516748</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>42784</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>33333</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>59370</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>0.1015583807885621</v>
-      </c>
-      <c r="O16" s="6" t="n">
-        <v>0.07912292173557625</v>
-      </c>
-      <c r="P16" s="6" t="n">
-        <v>0.1409292172167693</v>
-      </c>
-      <c r="Q16" s="5" t="n">
-        <v>89</v>
-      </c>
-      <c r="R16" s="5" t="n">
-        <v>70768</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>56525</v>
-      </c>
-      <c r="T16" s="5" t="n">
-        <v>90767</v>
-      </c>
-      <c r="U16" s="6" t="n">
-        <v>0.08908165874652102</v>
-      </c>
-      <c r="V16" s="6" t="n">
-        <v>0.07115227524938986</v>
-      </c>
-      <c r="W16" s="6" t="n">
-        <v>0.114254925005483</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>58</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>54953</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>41609</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>74168</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0.1472692905186694</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>0.1115088461577722</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0.1987633498971412</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>90</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>57825</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>45846</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>70779</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>0.1372607193202756</v>
-      </c>
-      <c r="O17" s="6" t="n">
-        <v>0.1088270282537865</v>
-      </c>
-      <c r="P17" s="6" t="n">
-        <v>0.1680116871165371</v>
-      </c>
-      <c r="Q17" s="5" t="n">
-        <v>148</v>
-      </c>
-      <c r="R17" s="5" t="n">
-        <v>112777</v>
-      </c>
-      <c r="S17" s="5" t="n">
-        <v>94669</v>
-      </c>
-      <c r="T17" s="5" t="n">
-        <v>135797</v>
-      </c>
-      <c r="U17" s="6" t="n">
-        <v>0.1419618146516747</v>
-      </c>
-      <c r="V17" s="6" t="n">
-        <v>0.1191674835814901</v>
-      </c>
-      <c r="W17" s="6" t="n">
-        <v>0.170938249675794</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>205</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>290208</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>269711</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>308859</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0.7777351086573211</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>0.7228045597777276</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>0.8277188645720041</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>448</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>320667</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>301795</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>334923</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>0.7611808998911623</v>
-      </c>
-      <c r="O18" s="6" t="n">
-        <v>0.7163834458941517</v>
-      </c>
-      <c r="P18" s="6" t="n">
-        <v>0.7950203124856553</v>
-      </c>
-      <c r="Q18" s="5" t="n">
-        <v>653</v>
-      </c>
-      <c r="R18" s="5" t="n">
-        <v>610875</v>
-      </c>
-      <c r="S18" s="5" t="n">
-        <v>584061</v>
-      </c>
-      <c r="T18" s="5" t="n">
-        <v>634122</v>
-      </c>
-      <c r="U18" s="6" t="n">
-        <v>0.7689565266018045</v>
-      </c>
-      <c r="V18" s="6" t="n">
-        <v>0.7352027902678658</v>
-      </c>
-      <c r="W18" s="6" t="n">
-        <v>0.7982193052429805</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>292</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>373145</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>373145</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>373145</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>598</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>421276</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>421276</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>421276</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>890</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>794421</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>794421</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>794421</v>
-      </c>
-      <c r="U19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Huelva</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6" t="inlineStr"/>
-      <c r="I20" s="6" t="inlineStr"/>
-      <c r="J20" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>881</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>2906</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>0.003862768561138783</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6" t="n">
-        <v>0.01274299681862111</v>
-      </c>
-      <c r="Q20" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="5" t="n">
-        <v>881</v>
-      </c>
-      <c r="S20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="5" t="n">
-        <v>2959</v>
-      </c>
-      <c r="U20" s="6" t="n">
-        <v>0.002030986501222566</v>
-      </c>
-      <c r="V20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="6" t="n">
-        <v>0.006822723934006908</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>16574</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>10356</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>24913</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0.0805870950301642</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0.05035309940387522</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0.1211356320027522</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>13314</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>9048</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>19176</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>0.05838741599811991</v>
-      </c>
-      <c r="O21" s="6" t="n">
-        <v>0.03967991425774103</v>
-      </c>
-      <c r="P21" s="6" t="n">
-        <v>0.08409389275171594</v>
-      </c>
-      <c r="Q21" s="5" t="n">
-        <v>52</v>
-      </c>
-      <c r="R21" s="5" t="n">
-        <v>29888</v>
-      </c>
-      <c r="S21" s="5" t="n">
-        <v>22169</v>
-      </c>
-      <c r="T21" s="5" t="n">
-        <v>39103</v>
-      </c>
-      <c r="U21" s="6" t="n">
-        <v>0.06891483257593542</v>
-      </c>
-      <c r="V21" s="6" t="n">
-        <v>0.05111696516981479</v>
-      </c>
-      <c r="W21" s="6" t="n">
-        <v>0.09016139161791074</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>257</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>189091</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>180752</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>195309</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>0.9194129049698357</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>0.8788643679972478</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>0.949646900596125</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>461</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>213836</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>207971</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>218353</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>0.9377498154407411</v>
-      </c>
-      <c r="O22" s="6" t="n">
-        <v>0.9120284900795211</v>
-      </c>
-      <c r="P22" s="6" t="n">
-        <v>0.957559094328156</v>
-      </c>
-      <c r="Q22" s="5" t="n">
-        <v>718</v>
-      </c>
-      <c r="R22" s="5" t="n">
-        <v>402926</v>
-      </c>
-      <c r="S22" s="5" t="n">
-        <v>392849</v>
-      </c>
-      <c r="T22" s="5" t="n">
-        <v>410187</v>
-      </c>
-      <c r="U22" s="6" t="n">
-        <v>0.9290541809228421</v>
-      </c>
-      <c r="V22" s="6" t="n">
-        <v>0.9058182532720322</v>
-      </c>
-      <c r="W22" s="6" t="n">
-        <v>0.9457962494390518</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>279</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>205665</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>205665</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>205665</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>493</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>228031</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>228031</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>228031</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>772</v>
-      </c>
-      <c r="R23" s="5" t="n">
-        <v>433695</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>433695</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>433695</v>
-      </c>
-      <c r="U23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Jaén</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>15375</v>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>9045</v>
-      </c>
-      <c r="F24" s="5" t="n">
-        <v>23496</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>0.05688526830553228</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>0.033463826276104</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>0.08693263694381206</v>
-      </c>
-      <c r="J24" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>17281</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>11342</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>24529</v>
-      </c>
-      <c r="N24" s="6" t="n">
-        <v>0.06569385572072704</v>
-      </c>
-      <c r="O24" s="6" t="n">
-        <v>0.04311815593224906</v>
-      </c>
-      <c r="P24" s="6" t="n">
-        <v>0.09325025905237502</v>
-      </c>
-      <c r="Q24" s="5" t="n">
-        <v>45</v>
-      </c>
-      <c r="R24" s="5" t="n">
-        <v>32656</v>
-      </c>
-      <c r="S24" s="5" t="n">
-        <v>23754</v>
-      </c>
-      <c r="T24" s="5" t="n">
-        <v>42410</v>
-      </c>
-      <c r="U24" s="6" t="n">
-        <v>0.06122982928573841</v>
-      </c>
-      <c r="V24" s="6" t="n">
-        <v>0.04453798063829566</v>
-      </c>
-      <c r="W24" s="6" t="n">
-        <v>0.07951929865361823</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>12635</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>7911</v>
-      </c>
-      <c r="F25" s="5" t="n">
-        <v>19830</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>0.04674652874950588</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <v>0.02927052736416729</v>
-      </c>
-      <c r="I25" s="6" t="n">
-        <v>0.07336618105848511</v>
-      </c>
-      <c r="J25" s="5" t="n">
-        <v>27</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>13304</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>8870</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>18111</v>
-      </c>
-      <c r="N25" s="6" t="n">
-        <v>0.05057726139795809</v>
-      </c>
-      <c r="O25" s="6" t="n">
-        <v>0.03372039124170507</v>
-      </c>
-      <c r="P25" s="6" t="n">
-        <v>0.06885183212406706</v>
-      </c>
-      <c r="Q25" s="5" t="n">
-        <v>46</v>
-      </c>
-      <c r="R25" s="5" t="n">
-        <v>25939</v>
-      </c>
-      <c r="S25" s="5" t="n">
-        <v>19032</v>
-      </c>
-      <c r="T25" s="5" t="n">
-        <v>35041</v>
-      </c>
-      <c r="U25" s="6" t="n">
-        <v>0.04863591813801989</v>
-      </c>
-      <c r="V25" s="6" t="n">
-        <v>0.03568568757389633</v>
-      </c>
-      <c r="W25" s="6" t="n">
-        <v>0.06570220096906594</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>332</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>242273</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>231455</v>
-      </c>
-      <c r="F26" s="5" t="n">
-        <v>249712</v>
-      </c>
-      <c r="G26" s="6" t="n">
-        <v>0.896368202944962</v>
-      </c>
-      <c r="H26" s="6" t="n">
-        <v>0.8563446447574637</v>
-      </c>
-      <c r="I26" s="6" t="n">
-        <v>0.9238904418946409</v>
-      </c>
-      <c r="J26" s="5" t="n">
-        <v>406</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>232465</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>223401</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>240059</v>
-      </c>
-      <c r="N26" s="6" t="n">
-        <v>0.8837288828813148</v>
-      </c>
-      <c r="O26" s="6" t="n">
-        <v>0.8492706105485127</v>
-      </c>
-      <c r="P26" s="6" t="n">
-        <v>0.9125990632797135</v>
-      </c>
-      <c r="Q26" s="5" t="n">
-        <v>738</v>
-      </c>
-      <c r="R26" s="5" t="n">
-        <v>474739</v>
-      </c>
-      <c r="S26" s="5" t="n">
-        <v>462262</v>
-      </c>
-      <c r="T26" s="5" t="n">
-        <v>485825</v>
-      </c>
-      <c r="U26" s="6" t="n">
-        <v>0.8901342525762416</v>
-      </c>
-      <c r="V26" s="6" t="n">
-        <v>0.8667399087526342</v>
-      </c>
-      <c r="W26" s="6" t="n">
-        <v>0.9109203906665656</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>370</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>270283</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>270283</v>
-      </c>
-      <c r="F27" s="5" t="n">
-        <v>270283</v>
-      </c>
-      <c r="G27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5" t="n">
-        <v>459</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>263050</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>263050</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>263050</v>
-      </c>
-      <c r="N27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="5" t="n">
-        <v>829</v>
-      </c>
-      <c r="R27" s="5" t="n">
-        <v>533334</v>
-      </c>
-      <c r="S27" s="5" t="n">
-        <v>533334</v>
-      </c>
-      <c r="T27" s="5" t="n">
-        <v>533334</v>
-      </c>
-      <c r="U27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Málaga</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>117</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>141297</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>118409</v>
-      </c>
-      <c r="F28" s="5" t="n">
-        <v>168633</v>
-      </c>
-      <c r="G28" s="6" t="n">
-        <v>0.1969589159414764</v>
-      </c>
-      <c r="H28" s="6" t="n">
-        <v>0.1650550538282323</v>
-      </c>
-      <c r="I28" s="6" t="n">
-        <v>0.2350645405696415</v>
-      </c>
-      <c r="J28" s="5" t="n">
-        <v>190</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>151932</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>133359</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>175551</v>
-      </c>
-      <c r="N28" s="6" t="n">
-        <v>0.197149956111466</v>
-      </c>
-      <c r="O28" s="6" t="n">
-        <v>0.1730497796315986</v>
-      </c>
-      <c r="P28" s="6" t="n">
-        <v>0.2277983813063502</v>
-      </c>
-      <c r="Q28" s="5" t="n">
-        <v>307</v>
-      </c>
-      <c r="R28" s="5" t="n">
-        <v>293228</v>
-      </c>
-      <c r="S28" s="5" t="n">
-        <v>262116</v>
-      </c>
-      <c r="T28" s="5" t="n">
-        <v>328182</v>
-      </c>
-      <c r="U28" s="6" t="n">
-        <v>0.1970578541607102</v>
-      </c>
-      <c r="V28" s="6" t="n">
-        <v>0.1761497043412805</v>
-      </c>
-      <c r="W28" s="6" t="n">
-        <v>0.2205480459951348</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>119274</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>98631</v>
-      </c>
-      <c r="F29" s="5" t="n">
-        <v>143237</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>0.1662605183496998</v>
-      </c>
-      <c r="H29" s="6" t="n">
-        <v>0.137486325900596</v>
-      </c>
-      <c r="I29" s="6" t="n">
-        <v>0.1996643143795859</v>
-      </c>
-      <c r="J29" s="5" t="n">
-        <v>190</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>150343</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>131417</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>173365</v>
-      </c>
-      <c r="N29" s="6" t="n">
-        <v>0.1950889120049391</v>
-      </c>
-      <c r="O29" s="6" t="n">
-        <v>0.1705294068399612</v>
-      </c>
-      <c r="P29" s="6" t="n">
-        <v>0.2249628375583844</v>
-      </c>
-      <c r="Q29" s="5" t="n">
-        <v>293</v>
-      </c>
-      <c r="R29" s="5" t="n">
-        <v>269617</v>
-      </c>
-      <c r="S29" s="5" t="n">
-        <v>240563</v>
-      </c>
-      <c r="T29" s="5" t="n">
-        <v>300706</v>
-      </c>
-      <c r="U29" s="6" t="n">
-        <v>0.1811905193635038</v>
-      </c>
-      <c r="V29" s="6" t="n">
-        <v>0.1616650554826405</v>
-      </c>
-      <c r="W29" s="6" t="n">
-        <v>0.2020831556790826</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>377</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>456821</v>
-      </c>
-      <c r="E30" s="5" t="n">
-        <v>427805</v>
-      </c>
-      <c r="F30" s="5" t="n">
-        <v>484631</v>
-      </c>
-      <c r="G30" s="6" t="n">
-        <v>0.6367805657088239</v>
-      </c>
-      <c r="H30" s="6" t="n">
-        <v>0.596334808721689</v>
-      </c>
-      <c r="I30" s="6" t="n">
-        <v>0.6755470979841147</v>
-      </c>
-      <c r="J30" s="5" t="n">
-        <v>578</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>468365</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>439644</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>492407</v>
-      </c>
-      <c r="N30" s="6" t="n">
-        <v>0.6077611318835949</v>
-      </c>
-      <c r="O30" s="6" t="n">
-        <v>0.5704914148545496</v>
-      </c>
-      <c r="P30" s="6" t="n">
-        <v>0.6389581535895049</v>
-      </c>
-      <c r="Q30" s="5" t="n">
-        <v>955</v>
-      </c>
-      <c r="R30" s="5" t="n">
-        <v>925186</v>
-      </c>
-      <c r="S30" s="5" t="n">
-        <v>886568</v>
-      </c>
-      <c r="T30" s="5" t="n">
-        <v>963913</v>
-      </c>
-      <c r="U30" s="6" t="n">
-        <v>0.621751626475786</v>
-      </c>
-      <c r="V30" s="6" t="n">
-        <v>0.5957996903963704</v>
-      </c>
-      <c r="W30" s="6" t="n">
-        <v>0.6477773683315877</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>597</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>717391</v>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>717391</v>
-      </c>
-      <c r="F31" s="5" t="n">
-        <v>717391</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="5" t="n">
-        <v>958</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>770640</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>770640</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>770640</v>
-      </c>
-      <c r="N31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="5" t="n">
-        <v>1555</v>
-      </c>
-      <c r="R31" s="5" t="n">
-        <v>1488031</v>
-      </c>
-      <c r="S31" s="5" t="n">
-        <v>1488031</v>
-      </c>
-      <c r="T31" s="5" t="n">
-        <v>1488031</v>
-      </c>
-      <c r="U31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W31" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="n">
-        <v>38</v>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>38120</v>
-      </c>
-      <c r="E32" s="5" t="n">
-        <v>27703</v>
-      </c>
-      <c r="F32" s="5" t="n">
-        <v>52469</v>
-      </c>
-      <c r="G32" s="6" t="n">
-        <v>0.04776468481278993</v>
-      </c>
-      <c r="H32" s="6" t="n">
-        <v>0.03471218645607757</v>
-      </c>
-      <c r="I32" s="6" t="n">
-        <v>0.06574526670896221</v>
-      </c>
-      <c r="J32" s="5" t="n">
-        <v>79</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>60102</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>48981</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>74726</v>
-      </c>
-      <c r="N32" s="6" t="n">
-        <v>0.07243468231015904</v>
-      </c>
-      <c r="O32" s="6" t="n">
-        <v>0.05903185522403075</v>
-      </c>
-      <c r="P32" s="6" t="n">
-        <v>0.09005908512673574</v>
-      </c>
-      <c r="Q32" s="5" t="n">
-        <v>117</v>
-      </c>
-      <c r="R32" s="5" t="n">
-        <v>98222</v>
-      </c>
-      <c r="S32" s="5" t="n">
-        <v>81182</v>
-      </c>
-      <c r="T32" s="5" t="n">
-        <v>117822</v>
-      </c>
-      <c r="U32" s="6" t="n">
-        <v>0.06033968135751141</v>
-      </c>
-      <c r="V32" s="6" t="n">
-        <v>0.04987194404005062</v>
-      </c>
-      <c r="W32" s="6" t="n">
-        <v>0.07238048615439165</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="n">
-        <v>70</v>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>76562</v>
-      </c>
-      <c r="E33" s="5" t="n">
-        <v>61184</v>
-      </c>
-      <c r="F33" s="5" t="n">
-        <v>95510</v>
-      </c>
-      <c r="G33" s="6" t="n">
-        <v>0.09593381986458882</v>
-      </c>
-      <c r="H33" s="6" t="n">
-        <v>0.07666436017024697</v>
-      </c>
-      <c r="I33" s="6" t="n">
-        <v>0.1196760432768146</v>
-      </c>
-      <c r="J33" s="5" t="n">
-        <v>120</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>97573</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>81620</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>116049</v>
-      </c>
-      <c r="N33" s="6" t="n">
-        <v>0.1175941062505927</v>
-      </c>
-      <c r="O33" s="6" t="n">
-        <v>0.09836731744012549</v>
-      </c>
-      <c r="P33" s="6" t="n">
-        <v>0.1398613659606232</v>
-      </c>
-      <c r="Q33" s="5" t="n">
-        <v>190</v>
-      </c>
-      <c r="R33" s="5" t="n">
-        <v>174135</v>
-      </c>
-      <c r="S33" s="5" t="n">
-        <v>152377</v>
-      </c>
-      <c r="T33" s="5" t="n">
-        <v>203973</v>
-      </c>
-      <c r="U33" s="6" t="n">
-        <v>0.106974681400579</v>
-      </c>
-      <c r="V33" s="6" t="n">
-        <v>0.09360807950715133</v>
-      </c>
-      <c r="W33" s="6" t="n">
-        <v>0.1253048660943591</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>654</v>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>683390</v>
-      </c>
-      <c r="E34" s="5" t="n">
-        <v>661657</v>
-      </c>
-      <c r="F34" s="5" t="n">
-        <v>704715</v>
-      </c>
-      <c r="G34" s="6" t="n">
-        <v>0.8563014953226211</v>
-      </c>
-      <c r="H34" s="6" t="n">
-        <v>0.8290692517456822</v>
-      </c>
-      <c r="I34" s="6" t="n">
-        <v>0.8830221328459844</v>
-      </c>
-      <c r="J34" s="5" t="n">
-        <v>861</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>672069</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>649803</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>689294</v>
-      </c>
-      <c r="N34" s="6" t="n">
-        <v>0.8099712114392486</v>
-      </c>
-      <c r="O34" s="6" t="n">
-        <v>0.7831367064963773</v>
-      </c>
-      <c r="P34" s="6" t="n">
-        <v>0.8307311125888933</v>
-      </c>
-      <c r="Q34" s="5" t="n">
-        <v>1515</v>
-      </c>
-      <c r="R34" s="5" t="n">
-        <v>1355459</v>
-      </c>
-      <c r="S34" s="5" t="n">
-        <v>1321966</v>
-      </c>
-      <c r="T34" s="5" t="n">
-        <v>1381985</v>
-      </c>
-      <c r="U34" s="6" t="n">
-        <v>0.8326856372419096</v>
-      </c>
-      <c r="V34" s="6" t="n">
-        <v>0.812110351076726</v>
-      </c>
-      <c r="W34" s="6" t="n">
-        <v>0.8489812904231046</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="n">
-        <v>762</v>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>798072</v>
-      </c>
-      <c r="E35" s="5" t="n">
-        <v>798072</v>
-      </c>
-      <c r="F35" s="5" t="n">
-        <v>798072</v>
-      </c>
-      <c r="G35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="5" t="n">
-        <v>1060</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>829744</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>829744</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>829744</v>
-      </c>
-      <c r="N35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="5" t="n">
-        <v>1822</v>
-      </c>
-      <c r="R35" s="5" t="n">
-        <v>1627816</v>
-      </c>
-      <c r="S35" s="5" t="n">
-        <v>1627816</v>
-      </c>
-      <c r="T35" s="5" t="n">
-        <v>1627816</v>
-      </c>
-      <c r="U35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W35" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C36" s="5" t="n">
-        <v>268</v>
-      </c>
-      <c r="D36" s="5" t="n">
-        <v>294534</v>
-      </c>
-      <c r="E36" s="5" t="n">
-        <v>258040</v>
-      </c>
-      <c r="F36" s="5" t="n">
-        <v>333264</v>
-      </c>
-      <c r="G36" s="6" t="n">
-        <v>0.08346211214554997</v>
-      </c>
-      <c r="H36" s="6" t="n">
-        <v>0.07312087796040645</v>
-      </c>
-      <c r="I36" s="6" t="n">
-        <v>0.09443693208075171</v>
-      </c>
-      <c r="J36" s="5" t="n">
-        <v>457</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>344599</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>315921</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>382193</v>
-      </c>
-      <c r="N36" s="6" t="n">
-        <v>0.09238963978658332</v>
-      </c>
-      <c r="O36" s="6" t="n">
-        <v>0.08470077815986936</v>
-      </c>
-      <c r="P36" s="6" t="n">
-        <v>0.1024688027683727</v>
-      </c>
-      <c r="Q36" s="5" t="n">
-        <v>725</v>
-      </c>
-      <c r="R36" s="5" t="n">
-        <v>639134</v>
-      </c>
-      <c r="S36" s="5" t="n">
-        <v>586999</v>
-      </c>
-      <c r="T36" s="5" t="n">
-        <v>688147</v>
-      </c>
-      <c r="U36" s="6" t="n">
-        <v>0.08804941376775124</v>
-      </c>
-      <c r="V36" s="6" t="n">
-        <v>0.08086709724847757</v>
-      </c>
-      <c r="W36" s="6" t="n">
-        <v>0.0948017286161033</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="n">
-        <v>439</v>
-      </c>
-      <c r="D37" s="5" t="n">
-        <v>468365</v>
-      </c>
-      <c r="E37" s="5" t="n">
-        <v>429764</v>
-      </c>
-      <c r="F37" s="5" t="n">
-        <v>516893</v>
-      </c>
-      <c r="G37" s="6" t="n">
-        <v>0.1327204499742008</v>
-      </c>
-      <c r="H37" s="6" t="n">
-        <v>0.121782115853766</v>
-      </c>
-      <c r="I37" s="6" t="n">
-        <v>0.1464717875812137</v>
-      </c>
-      <c r="J37" s="5" t="n">
-        <v>728</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>537043</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>501196</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>573452</v>
-      </c>
-      <c r="N37" s="6" t="n">
-        <v>0.143985073861179</v>
-      </c>
-      <c r="O37" s="6" t="n">
-        <v>0.1343743481812669</v>
-      </c>
-      <c r="P37" s="6" t="n">
-        <v>0.1537466231563163</v>
-      </c>
-      <c r="Q37" s="5" t="n">
-        <v>1167</v>
-      </c>
-      <c r="R37" s="5" t="n">
-        <v>1005407</v>
-      </c>
-      <c r="S37" s="5" t="n">
-        <v>952411</v>
-      </c>
-      <c r="T37" s="5" t="n">
-        <v>1066564</v>
-      </c>
-      <c r="U37" s="6" t="n">
-        <v>0.1385086401101477</v>
-      </c>
-      <c r="V37" s="6" t="n">
-        <v>0.1312076573526623</v>
-      </c>
-      <c r="W37" s="6" t="n">
-        <v>0.1469337889618868</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="n">
-        <v>2665</v>
-      </c>
-      <c r="D38" s="5" t="n">
-        <v>2766058</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>2707968</v>
-      </c>
-      <c r="F38" s="5" t="n">
-        <v>2818259</v>
-      </c>
-      <c r="G38" s="6" t="n">
-        <v>0.7838174378802494</v>
-      </c>
-      <c r="H38" s="6" t="n">
-        <v>0.7673565876460562</v>
-      </c>
-      <c r="I38" s="6" t="n">
-        <v>0.7986096420009225</v>
-      </c>
-      <c r="J38" s="5" t="n">
-        <v>4171</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>2848207</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>2800939</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>2894595</v>
-      </c>
-      <c r="N38" s="6" t="n">
-        <v>0.7636252863522374</v>
-      </c>
-      <c r="O38" s="6" t="n">
-        <v>0.7509524376808825</v>
-      </c>
-      <c r="P38" s="6" t="n">
-        <v>0.776062207576647</v>
-      </c>
-      <c r="Q38" s="5" t="n">
-        <v>6836</v>
-      </c>
-      <c r="R38" s="5" t="n">
-        <v>5614265</v>
-      </c>
-      <c r="S38" s="5" t="n">
-        <v>5544008</v>
-      </c>
-      <c r="T38" s="5" t="n">
-        <v>5681473</v>
-      </c>
-      <c r="U38" s="6" t="n">
-        <v>0.7734419461221009</v>
-      </c>
-      <c r="V38" s="6" t="n">
-        <v>0.7637631414572211</v>
-      </c>
-      <c r="W38" s="6" t="n">
-        <v>0.7827008316950076</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="n">
-        <v>3372</v>
-      </c>
-      <c r="D39" s="5" t="n">
-        <v>3528957</v>
-      </c>
-      <c r="E39" s="5" t="n">
-        <v>3528957</v>
-      </c>
-      <c r="F39" s="5" t="n">
-        <v>3528957</v>
-      </c>
-      <c r="G39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" s="5" t="n">
-        <v>5356</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>3729849</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>3729849</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>3729849</v>
-      </c>
-      <c r="N39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="5" t="n">
-        <v>8728</v>
-      </c>
-      <c r="R39" s="5" t="n">
-        <v>7258806</v>
-      </c>
-      <c r="S39" s="5" t="n">
-        <v>7258806</v>
-      </c>
-      <c r="T39" s="5" t="n">
-        <v>7258806</v>
-      </c>
-      <c r="U39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W39" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/data/trans_orig/P05A05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>72514</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57913</v>
+        <v>58992</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87151</v>
+        <v>90898</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2671512239539184</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2133580208057561</v>
+        <v>0.2173344965429048</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3210753737183962</v>
+        <v>0.3348790986707661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -764,19 +764,19 @@
         <v>52212</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40328</v>
+        <v>40355</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68134</v>
+        <v>65805</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2009327863087899</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1551964736561615</v>
+        <v>0.1553018344598634</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.262203950434158</v>
+        <v>0.2532423884474394</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>120</v>
@@ -785,19 +785,19 @@
         <v>124726</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>107898</v>
+        <v>103960</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>147329</v>
+        <v>144992</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2347639638115676</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2030900114884252</v>
+        <v>0.1956768067104787</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2773082278073737</v>
+        <v>0.2729085616867066</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>177944</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>162087</v>
+        <v>161156</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>193764</v>
+        <v>192236</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6555685124336502</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5971501905141102</v>
+        <v>0.5937178595884831</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7138508296369837</v>
+        <v>0.7082218217675761</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>177</v>
@@ -835,19 +835,19 @@
         <v>189196</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>173650</v>
+        <v>175032</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>204039</v>
+        <v>202483</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.728095700102047</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6682702758651672</v>
+        <v>0.6735880729581228</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7852169962128074</v>
+        <v>0.7792287614453467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>355</v>
@@ -856,19 +856,19 @@
         <v>367139</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>342007</v>
+        <v>345912</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>387383</v>
+        <v>389051</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6910413652816405</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6437362806791964</v>
+        <v>0.6510862122555493</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7291449554736826</v>
+        <v>0.7322849219551316</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>20977</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13249</v>
+        <v>13776</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30793</v>
+        <v>31013</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07728026361243136</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04880964416516228</v>
+        <v>0.05075186927693646</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1134468250662246</v>
+        <v>0.1142563851041207</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -906,19 +906,19 @@
         <v>18442</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10994</v>
+        <v>11462</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28083</v>
+        <v>28027</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07097151358916312</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04230867169262302</v>
+        <v>0.04411066631474591</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1080751417608933</v>
+        <v>0.1078577415348996</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>39</v>
@@ -927,19 +927,19 @@
         <v>39418</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>28682</v>
+        <v>28789</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>52324</v>
+        <v>52484</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07419467090679191</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05398683857314716</v>
+        <v>0.05418797905404692</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0984853480986088</v>
+        <v>0.09878648081359921</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>140084</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>120693</v>
+        <v>121476</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>163011</v>
+        <v>161341</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2841024724411311</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2447754395930757</v>
+        <v>0.2463637378086385</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3306005077041429</v>
+        <v>0.3272131808645038</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>149</v>
@@ -1052,19 +1052,19 @@
         <v>151951</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>131491</v>
+        <v>132157</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>171664</v>
+        <v>173936</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3021595469682147</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2614748983451583</v>
+        <v>0.2627995173491258</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3413606983264404</v>
+        <v>0.3458779721196923</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>277</v>
@@ -1073,19 +1073,19 @@
         <v>292034</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>265604</v>
+        <v>260137</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>321224</v>
+        <v>319939</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2932199110212048</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2666826546560413</v>
+        <v>0.2611925311973798</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3225283131114348</v>
+        <v>0.3212380790297219</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>236217</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>214350</v>
+        <v>214175</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>260631</v>
+        <v>259136</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4790684622635719</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4347212169002341</v>
+        <v>0.4343650498570373</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5285835389490575</v>
+        <v>0.5255511304084307</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>233</v>
@@ -1123,19 +1123,19 @@
         <v>235779</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>212793</v>
+        <v>214923</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>257424</v>
+        <v>259010</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.468856165568816</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4231475486174137</v>
+        <v>0.4273816589095936</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5118981513791726</v>
+        <v>0.5150504752633679</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>461</v>
@@ -1144,19 +1144,19 @@
         <v>471996</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>441578</v>
+        <v>439283</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>505247</v>
+        <v>504100</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4739120351947091</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4433704545182718</v>
+        <v>0.4410658257817548</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5072978003104349</v>
+        <v>0.5061461575490662</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>116774</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98093</v>
+        <v>97951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138686</v>
+        <v>136425</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.236829065295297</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1989421581116095</v>
+        <v>0.1986533902611931</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2812674866237304</v>
+        <v>0.2766827486528857</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>116</v>
@@ -1194,19 +1194,19 @@
         <v>115152</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96700</v>
+        <v>97609</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>134413</v>
+        <v>135849</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2289842874629693</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1922922792083528</v>
+        <v>0.1940983936547934</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2672847978782283</v>
+        <v>0.2701415198627775</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>225</v>
@@ -1215,19 +1215,19 @@
         <v>231927</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>203575</v>
+        <v>209344</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>257825</v>
+        <v>260401</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2328680537840861</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2044011695432409</v>
+        <v>0.2101933125835108</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2588717378700913</v>
+        <v>0.2614579334339647</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>127214</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>110504</v>
+        <v>110308</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>146322</v>
+        <v>146078</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3989838278306956</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.346575183492387</v>
+        <v>0.3459607472620432</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4589098509452135</v>
+        <v>0.4581449632315378</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>105</v>
@@ -1340,19 +1340,19 @@
         <v>106027</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>88852</v>
+        <v>91872</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>122188</v>
+        <v>124059</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3170619477036357</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2657018848937378</v>
+        <v>0.2747338846979254</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3653897423420155</v>
+        <v>0.3709853537555774</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>233</v>
@@ -1361,19 +1361,19 @@
         <v>233242</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>207464</v>
+        <v>208622</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>257965</v>
+        <v>257832</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3570473113455964</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3175877145748044</v>
+        <v>0.3193598779184154</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3948947014950758</v>
+        <v>0.3946903439567434</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>156468</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>137621</v>
+        <v>137270</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>174554</v>
+        <v>173168</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4907316789149906</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4316227284787134</v>
+        <v>0.4305207744694053</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5474550742085412</v>
+        <v>0.5431082749470331</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>177</v>
@@ -1411,19 +1411,19 @@
         <v>176530</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>157420</v>
+        <v>157972</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>194605</v>
+        <v>193196</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5278932530982896</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4707475295608983</v>
+        <v>0.4723969682356289</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5819448969959842</v>
+        <v>0.5777302163659346</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>328</v>
@@ -1432,19 +1432,19 @@
         <v>332998</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>306351</v>
+        <v>307143</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>357801</v>
+        <v>357836</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5097550090184142</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4689639936674129</v>
+        <v>0.4701763259075783</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5477235459594443</v>
+        <v>0.5477769660676991</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>35164</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24237</v>
+        <v>25229</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49020</v>
+        <v>47748</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1102844932543138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07601521137119975</v>
+        <v>0.07912641620159748</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1537408262544702</v>
+        <v>0.1497525813861195</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -1482,19 +1482,19 @@
         <v>51848</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39567</v>
+        <v>40357</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>67420</v>
+        <v>65729</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1550447991980747</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1183192458944317</v>
+        <v>0.1206840905174358</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2016107467338279</v>
+        <v>0.1965563735979938</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>83</v>
@@ -1503,19 +1503,19 @@
         <v>87012</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>69586</v>
+        <v>69542</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>104917</v>
+        <v>104330</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1331976796359894</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1065227263977067</v>
+        <v>0.1064554373838957</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1606080422672217</v>
+        <v>0.1597083285264486</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>104799</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>89726</v>
+        <v>88144</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>122588</v>
+        <v>123038</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2929570545315178</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2508223535361576</v>
+        <v>0.2463990490033476</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3426866243926914</v>
+        <v>0.3439436083540218</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>119</v>
@@ -1628,19 +1628,19 @@
         <v>115514</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>98694</v>
+        <v>99920</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>131572</v>
+        <v>134058</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3117021653408287</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.26631328810052</v>
+        <v>0.269622571235987</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3550322524122565</v>
+        <v>0.3617389798490007</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>227</v>
@@ -1649,19 +1649,19 @@
         <v>220313</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>196366</v>
+        <v>197863</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>243688</v>
+        <v>244434</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3024951764839628</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2696150510446976</v>
+        <v>0.2716712758016118</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3345896627100777</v>
+        <v>0.3356144627521698</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>202427</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183907</v>
+        <v>182382</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>221594</v>
+        <v>219760</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5658700662159438</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5140974611984848</v>
+        <v>0.5098351273536429</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6194489360290166</v>
+        <v>0.6143226352374818</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>220</v>
@@ -1699,19 +1699,19 @@
         <v>211051</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193194</v>
+        <v>193939</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>228966</v>
+        <v>227432</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5694977485043059</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5213120895487064</v>
+        <v>0.5233213070308442</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6178374928305661</v>
+        <v>0.6136981482008738</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>424</v>
@@ -1720,19 +1720,19 @@
         <v>413478</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>387030</v>
+        <v>388426</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>439534</v>
+        <v>438933</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.567715948932942</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5314012749782449</v>
+        <v>0.5333179038708077</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6034916326445949</v>
+        <v>0.6026658171787235</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>50501</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38296</v>
+        <v>37945</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>64384</v>
+        <v>64472</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1411728792525384</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.107054264088068</v>
+        <v>0.1060717797012869</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.179981937652738</v>
+        <v>0.1802268295721184</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>44</v>
@@ -1770,19 +1770,19 @@
         <v>44026</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32609</v>
+        <v>33154</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>57555</v>
+        <v>57528</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1188000861548654</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08799128774642133</v>
+        <v>0.08946176749411652</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1553058481728929</v>
+        <v>0.1552340562453004</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>93</v>
@@ -1791,19 +1791,19 @@
         <v>94528</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>77778</v>
+        <v>77617</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>114640</v>
+        <v>114168</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1297888745830953</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.106791519423849</v>
+        <v>0.1065701616171861</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1574041184835842</v>
+        <v>0.1567557260256228</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>16798</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10075</v>
+        <v>9634</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26718</v>
+        <v>26037</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08297623844139913</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04976643365524625</v>
+        <v>0.04758713908125174</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.131982172331508</v>
+        <v>0.1286157247689899</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -1916,19 +1916,19 @@
         <v>21311</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14241</v>
+        <v>13105</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32493</v>
+        <v>31973</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1039284750185623</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06944975198159412</v>
+        <v>0.06391304469185062</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.158463150013844</v>
+        <v>0.1559261394060322</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>36</v>
@@ -1937,19 +1937,19 @@
         <v>38108</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27580</v>
+        <v>27730</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>51652</v>
+        <v>52091</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09351944617758462</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06768196276412564</v>
+        <v>0.06805056031036499</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1267568461050936</v>
+        <v>0.1278341396877583</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>109016</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>95303</v>
+        <v>95620</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>122140</v>
+        <v>122936</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5385106234135796</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.470769170275502</v>
+        <v>0.4723367384840207</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6033406315128801</v>
+        <v>0.607269126682858</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>104</v>
@@ -1987,19 +1987,19 @@
         <v>107487</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>92197</v>
+        <v>92831</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>121263</v>
+        <v>121028</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5241991230284762</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4496297434083985</v>
+        <v>0.4527222762149051</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5913849011181893</v>
+        <v>0.5902341005299263</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>215</v>
@@ -2008,19 +2008,19 @@
         <v>216503</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>195953</v>
+        <v>195617</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>236520</v>
+        <v>235296</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5313090475330788</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4808781157651538</v>
+        <v>0.480053730807997</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5804321906217824</v>
+        <v>0.5774274646364306</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>76626</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>63461</v>
+        <v>62932</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>90249</v>
+        <v>90174</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3785131381450213</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3134820796972395</v>
+        <v>0.3108683574632972</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4458077830566687</v>
+        <v>0.4454373434130158</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>72</v>
@@ -2058,19 +2058,19 @@
         <v>76252</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>62569</v>
+        <v>63499</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90277</v>
+        <v>90261</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3718724019529615</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3051424689139042</v>
+        <v>0.3096756723299375</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4402681289510068</v>
+        <v>0.4401889421904949</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>150</v>
@@ -2079,19 +2079,19 @@
         <v>152879</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>133146</v>
+        <v>134064</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>172200</v>
+        <v>172775</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3751715062893365</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.326745740597533</v>
+        <v>0.3289990481735732</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4225861635490784</v>
+        <v>0.4239985184294044</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>107306</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>91396</v>
+        <v>91812</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>122565</v>
+        <v>124695</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3991341878695524</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.339956840952602</v>
+        <v>0.3415057459973834</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4558947181012094</v>
+        <v>0.4638162110974632</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>97</v>
@@ -2204,19 +2204,19 @@
         <v>101159</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>86417</v>
+        <v>84861</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>118672</v>
+        <v>117040</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3636941612564349</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3106921606961273</v>
+        <v>0.305098511046106</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4266575771822109</v>
+        <v>0.4207895005052286</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>203</v>
@@ -2225,19 +2225,19 @@
         <v>208465</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>184465</v>
+        <v>187826</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>231634</v>
+        <v>232301</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.381112956352341</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3372361270861633</v>
+        <v>0.3433805880265607</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4234708558866496</v>
+        <v>0.4246888968184084</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>145731</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>130159</v>
+        <v>127885</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>161347</v>
+        <v>162068</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5420603213836246</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.484141270182903</v>
+        <v>0.4756809974500682</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6001449719421407</v>
+        <v>0.602829003113225</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>148</v>
@@ -2275,19 +2275,19 @@
         <v>151335</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>134612</v>
+        <v>135053</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>167179</v>
+        <v>169040</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5440903597998463</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4839658539631665</v>
+        <v>0.4855513169263097</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6010518229467554</v>
+        <v>0.6077440606011224</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>290</v>
@@ -2296,19 +2296,19 @@
         <v>297066</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>273691</v>
+        <v>274299</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>322088</v>
+        <v>320786</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5430925946572012</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5003585479673232</v>
+        <v>0.5014695973819225</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5888366401979513</v>
+        <v>0.5864559315567103</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>15810</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8747</v>
+        <v>8852</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24356</v>
+        <v>24381</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05880549074682304</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03253412583576361</v>
+        <v>0.03292762424721125</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0905937036090568</v>
+        <v>0.09068899625108233</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -2346,19 +2346,19 @@
         <v>25649</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16932</v>
+        <v>16998</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>36855</v>
+        <v>35802</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09221547894371868</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06087671700881865</v>
+        <v>0.0611117146652555</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1325038525139426</v>
+        <v>0.1287180107725985</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>41</v>
@@ -2367,19 +2367,19 @@
         <v>41459</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29744</v>
+        <v>29836</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>55194</v>
+        <v>54054</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07579444899045781</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05437834240693505</v>
+        <v>0.05454516632286822</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1009053477747788</v>
+        <v>0.09882114931678185</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>300153</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>277623</v>
+        <v>274205</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>324666</v>
+        <v>325160</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4880326011501272</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.451399075087059</v>
+        <v>0.4458415680402662</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5278897399128132</v>
+        <v>0.5286930474187411</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>261</v>
@@ -2492,19 +2492,19 @@
         <v>269643</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>243709</v>
+        <v>244627</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>295506</v>
+        <v>295633</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4224935115339867</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3818586764782791</v>
+        <v>0.3832957213351149</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.463016955248278</v>
+        <v>0.4632159633732856</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>544</v>
@@ -2513,19 +2513,19 @@
         <v>569797</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>534989</v>
+        <v>532358</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>603603</v>
+        <v>609752</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4546566371820869</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.426882778582107</v>
+        <v>0.4247832881804998</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4816316197613687</v>
+        <v>0.4865385376193809</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>270545</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>244109</v>
+        <v>246361</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>292718</v>
+        <v>294181</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.439890475345552</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3969080239444261</v>
+        <v>0.4005693579950066</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4759431647530727</v>
+        <v>0.4783221532631292</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>301</v>
@@ -2563,19 +2563,19 @@
         <v>308903</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>283890</v>
+        <v>283724</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>334764</v>
+        <v>335403</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4840076202202954</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4448166097064151</v>
+        <v>0.4445560188726986</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5245291122604578</v>
+        <v>0.5255296010304277</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>571</v>
@@ -2584,19 +2584,19 @@
         <v>579447</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>543683</v>
+        <v>543841</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>615172</v>
+        <v>613654</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.462357254276055</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4338196735600957</v>
+        <v>0.4339459821314589</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4908630773398365</v>
+        <v>0.4896514930046444</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>44329</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32963</v>
+        <v>33029</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>59280</v>
+        <v>56485</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07207692350432081</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05359655414035721</v>
+        <v>0.05370350646355559</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09638606042492746</v>
+        <v>0.09184078022905885</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>59</v>
@@ -2634,19 +2634,19 @@
         <v>59673</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>45917</v>
+        <v>45513</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>75378</v>
+        <v>75618</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09349886824571783</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07194506561790191</v>
+        <v>0.07131220763510043</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.118106593103038</v>
+        <v>0.1184825946573558</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>104</v>
@@ -2655,19 +2655,19 @@
         <v>104002</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>85608</v>
+        <v>85927</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>124052</v>
+        <v>125509</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08298610854185814</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06830869572780807</v>
+        <v>0.0685635221925468</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0989849037819579</v>
+        <v>0.1001474239421416</v>
       </c>
     </row>
     <row r="31">
@@ -2759,19 +2759,19 @@
         <v>203418</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>177836</v>
+        <v>178311</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>229700</v>
+        <v>227770</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.27539095514962</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2407572028424674</v>
+        <v>0.2414011082668728</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3109717548899836</v>
+        <v>0.3083594543251277</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>221</v>
@@ -2780,19 +2780,19 @@
         <v>231920</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>207758</v>
+        <v>207635</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>260467</v>
+        <v>259438</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2972170123735495</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2662521072876434</v>
+        <v>0.2660953646142211</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.33380209286442</v>
+        <v>0.3324826281717126</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>426</v>
@@ -2801,19 +2801,19 @@
         <v>435337</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>402097</v>
+        <v>399472</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>470498</v>
+        <v>473047</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2866032436772533</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2647195237897937</v>
+        <v>0.2629910643686292</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.309751232787253</v>
+        <v>0.3114291310576529</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>302151</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>273957</v>
+        <v>273816</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>325630</v>
+        <v>331224</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4090583359040021</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3708878497566988</v>
+        <v>0.3706973631621259</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4408442167037062</v>
+        <v>0.4484172672892462</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>277</v>
@@ -2851,19 +2851,19 @@
         <v>292532</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>265653</v>
+        <v>262870</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>318726</v>
+        <v>319102</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3748947062875532</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3404480448357887</v>
+        <v>0.3368817156623673</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4084644635975976</v>
+        <v>0.4089451215672449</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>576</v>
@@ -2872,19 +2872,19 @@
         <v>594683</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>557302</v>
+        <v>556833</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>628852</v>
+        <v>632675</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.3915080991168075</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3668982914407382</v>
+        <v>0.3665892810931775</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4140027863732816</v>
+        <v>0.4165197406829779</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>233082</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>207612</v>
+        <v>209045</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>259552</v>
+        <v>259128</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3155507089463778</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2810687278179941</v>
+        <v>0.2830093878912661</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3513865177415919</v>
+        <v>0.3508130919791069</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>244</v>
@@ -2922,19 +2922,19 @@
         <v>255853</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>229576</v>
+        <v>227566</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>281609</v>
+        <v>281914</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3278882813388974</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.294214096794167</v>
+        <v>0.2916373556624184</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3608964857724762</v>
+        <v>0.3612876246367133</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>471</v>
@@ -2943,19 +2943,19 @@
         <v>488934</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>450728</v>
+        <v>454502</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>525306</v>
+        <v>527602</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3218886572059392</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2967353653345131</v>
+        <v>0.2992202772884504</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3458338648553276</v>
+        <v>0.3473451485963383</v>
       </c>
     </row>
     <row r="35">
@@ -3047,19 +3047,19 @@
         <v>1072285</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1024728</v>
+        <v>1017390</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1131429</v>
+        <v>1125037</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3283129318644069</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3137518984707825</v>
+        <v>0.3115049894439547</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3464216366550373</v>
+        <v>0.3444646478147092</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1021</v>
@@ -3068,19 +3068,19 @@
         <v>1049737</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>999554</v>
+        <v>994342</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1100518</v>
+        <v>1102460</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.311545999341111</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2966523829778447</v>
+        <v>0.2951053884016659</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.326617022536143</v>
+        <v>0.3271931899714423</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2066</v>
@@ -3089,19 +3089,19 @@
         <v>2122023</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2039848</v>
+        <v>2048969</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2191896</v>
+        <v>2199658</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3197988279112066</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3074147581713708</v>
+        <v>0.3087892921314209</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3303290440137069</v>
+        <v>0.3314989295410097</v>
       </c>
     </row>
     <row r="37">
@@ -3118,19 +3118,19 @@
         <v>1600498</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1544236</v>
+        <v>1544300</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1654339</v>
+        <v>1661477</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4900414391987528</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4728150861918188</v>
+        <v>0.4728347919474362</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5065264961577943</v>
+        <v>0.5087119282668794</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1637</v>
@@ -3139,19 +3139,19 @@
         <v>1672814</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1615592</v>
+        <v>1617192</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1730407</v>
+        <v>1730463</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4964654690639393</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4794828423323138</v>
+        <v>0.4799577992919675</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5135581852591874</v>
+        <v>0.5135749374791957</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3220</v>
@@ -3160,19 +3160,19 @@
         <v>3273311</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3194704</v>
+        <v>3192130</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3350961</v>
+        <v>3357708</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.493303506246179</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4814569405429053</v>
+        <v>0.4810690051530504</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5050057177044298</v>
+        <v>0.5060224932136259</v>
       </c>
     </row>
     <row r="38">
@@ -3189,19 +3189,19 @@
         <v>593263</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>549561</v>
+        <v>544730</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>640023</v>
+        <v>640643</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1816456289368403</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1682649092799744</v>
+        <v>0.1667856432546069</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1959626191860158</v>
+        <v>0.1961524448299793</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>630</v>
@@ -3210,19 +3210,19 @@
         <v>646895</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>603937</v>
+        <v>599845</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>695336</v>
+        <v>691072</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1919885315949496</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.179239249734223</v>
+        <v>0.1780248129106706</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2063651973203191</v>
+        <v>0.2050995383083617</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1206</v>
@@ -3231,19 +3231,19 @@
         <v>1240158</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1175210</v>
+        <v>1176079</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1303892</v>
+        <v>1305234</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1868976658426144</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1771097734927705</v>
+        <v>0.1772406223459626</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1965026949398793</v>
+        <v>0.196704976546839</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         <v>127106</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109830</v>
+        <v>109839</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>147451</v>
+        <v>144866</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4389909248388414</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.379325639380331</v>
+        <v>0.3793546462498417</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5092572855962894</v>
+        <v>0.500329454765727</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>110</v>
@@ -3600,19 +3600,19 @@
         <v>124940</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>106100</v>
+        <v>108004</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>142065</v>
+        <v>144701</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4475064484750739</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3800279433911024</v>
+        <v>0.3868456211857181</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5088452115075077</v>
+        <v>0.5182856972373571</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>229</v>
@@ -3621,19 +3621,19 @@
         <v>252046</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>226758</v>
+        <v>226192</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>276944</v>
+        <v>275965</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4431712023522205</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3987083744103206</v>
+        <v>0.3977133009432646</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4869501578484539</v>
+        <v>0.4852281170175559</v>
       </c>
     </row>
     <row r="5">
@@ -3650,19 +3650,19 @@
         <v>124915</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106564</v>
+        <v>108869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>141169</v>
+        <v>142535</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4314258869299622</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3680441023580953</v>
+        <v>0.3760039319992516</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.487562049625749</v>
+        <v>0.492279418968846</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>121</v>
@@ -3671,19 +3671,19 @@
         <v>132959</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>116863</v>
+        <v>114968</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>150865</v>
+        <v>149310</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4762280998774179</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4185781275987981</v>
+        <v>0.4117910623911626</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.540364077103668</v>
+        <v>0.5347940766349072</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>243</v>
@@ -3692,19 +3692,19 @@
         <v>257874</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>232464</v>
+        <v>231199</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>283389</v>
+        <v>285137</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4534193298859532</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4087415866564129</v>
+        <v>0.4065163453023863</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4982812982057259</v>
+        <v>0.5013553854795643</v>
       </c>
     </row>
     <row r="6">
@@ -3721,19 +3721,19 @@
         <v>37520</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26634</v>
+        <v>26996</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50848</v>
+        <v>49960</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1295831882311964</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09198839366345397</v>
+        <v>0.09323594850512176</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1756176127101669</v>
+        <v>0.1725497551139098</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -3742,19 +3742,19 @@
         <v>21293</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13158</v>
+        <v>13059</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>32530</v>
+        <v>32065</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07626545164750818</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04712974043249667</v>
+        <v>0.04677526989212864</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1165153551608233</v>
+        <v>0.1148512685235973</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -3763,19 +3763,19 @@
         <v>58812</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>45139</v>
+        <v>45134</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>75934</v>
+        <v>75165</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1034094677618263</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07936757407560871</v>
+        <v>0.07935930617173612</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1335141502327163</v>
+        <v>0.1321624204715134</v>
       </c>
     </row>
     <row r="7">
@@ -3867,19 +3867,19 @@
         <v>138961</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>118434</v>
+        <v>117396</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>160536</v>
+        <v>159389</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2772652527274406</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.23630973048102</v>
+        <v>0.2342374317112281</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.320313681471088</v>
+        <v>0.3180264801978545</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>144</v>
@@ -3888,19 +3888,19 @@
         <v>153843</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>132515</v>
+        <v>132895</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>175837</v>
+        <v>177215</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2948463656895523</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2539702976297243</v>
+        <v>0.2546983690098871</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3369981285692738</v>
+        <v>0.3396406905220797</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>273</v>
@@ -3909,19 +3909,19 @@
         <v>292804</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>263858</v>
+        <v>263272</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>323744</v>
+        <v>323106</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2862327445754205</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2579366907842385</v>
+        <v>0.2573637175511883</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3164790517343247</v>
+        <v>0.3158550729147683</v>
       </c>
     </row>
     <row r="9">
@@ -3938,19 +3938,19 @@
         <v>248012</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>224336</v>
+        <v>224241</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>272682</v>
+        <v>271227</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4948529999437492</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4476124866479936</v>
+        <v>0.4474227792192478</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5440767341570047</v>
+        <v>0.5411732115153527</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>223</v>
@@ -3959,19 +3959,19 @@
         <v>245017</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>220986</v>
+        <v>221233</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>268854</v>
+        <v>270134</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4695863004742202</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.423529201580658</v>
+        <v>0.4240015070233681</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5152697736171329</v>
+        <v>0.5177235997401602</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>458</v>
@@ -3980,19 +3980,19 @@
         <v>493030</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>458761</v>
+        <v>460230</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>523087</v>
+        <v>528396</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4819653675164592</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4484651610485133</v>
+        <v>0.4499017802877436</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.511347646613697</v>
+        <v>0.516537422334289</v>
       </c>
     </row>
     <row r="10">
@@ -4009,19 +4009,19 @@
         <v>114210</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>96018</v>
+        <v>97819</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134265</v>
+        <v>135986</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2278817473288102</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1915833921466721</v>
+        <v>0.1951767608820417</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2678958759464889</v>
+        <v>0.2713292117257201</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>111</v>
@@ -4030,19 +4030,19 @@
         <v>122913</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>102715</v>
+        <v>103691</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>144562</v>
+        <v>143862</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2355673338362275</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1968568365025304</v>
+        <v>0.1987283763783025</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2770599307631636</v>
+        <v>0.2757169200421307</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>216</v>
@@ -4051,19 +4051,19 @@
         <v>237123</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>209786</v>
+        <v>210043</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>266951</v>
+        <v>264841</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2318018879081203</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2050783362147114</v>
+        <v>0.2053292163654368</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2609603971695116</v>
+        <v>0.2588970796928816</v>
       </c>
     </row>
     <row r="11">
@@ -4155,19 +4155,19 @@
         <v>37968</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27405</v>
+        <v>26861</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50063</v>
+        <v>52083</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1178974570569729</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08509580660808634</v>
+        <v>0.08340910622643512</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1554546267734862</v>
+        <v>0.1617269302263774</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>40</v>
@@ -4176,19 +4176,19 @@
         <v>41095</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30419</v>
+        <v>30664</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55040</v>
+        <v>55578</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1208845730846815</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08947991319010384</v>
+        <v>0.09020320030863208</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1619061606295123</v>
+        <v>0.1634900992801618</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>77</v>
@@ -4197,19 +4197,19 @@
         <v>79063</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>63459</v>
+        <v>63770</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>97326</v>
+        <v>97706</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1194314090818862</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09585980076781174</v>
+        <v>0.09633056273503739</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1470193361221527</v>
+        <v>0.1475940497941358</v>
       </c>
     </row>
     <row r="13">
@@ -4226,19 +4226,19 @@
         <v>172448</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>153360</v>
+        <v>153919</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>190523</v>
+        <v>190029</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5354773531335605</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4762081458079082</v>
+        <v>0.4779429433298806</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.591603923997932</v>
+        <v>0.5900682549520528</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>152</v>
@@ -4247,19 +4247,19 @@
         <v>166958</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>147681</v>
+        <v>147565</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>186739</v>
+        <v>185376</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4911270707547882</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4344224031391807</v>
+        <v>0.4340798596614123</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5493161560293935</v>
+        <v>0.5453058538306492</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>320</v>
@@ -4268,19 +4268,19 @@
         <v>339406</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>313375</v>
+        <v>312337</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>363933</v>
+        <v>365791</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5127024743443418</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4733810306894678</v>
+        <v>0.4718124756027605</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5497529190802468</v>
+        <v>0.552559772897868</v>
       </c>
     </row>
     <row r="14">
@@ -4297,19 +4297,19 @@
         <v>111629</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94947</v>
+        <v>95300</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>129850</v>
+        <v>130626</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3466251898094665</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2948256596099374</v>
+        <v>0.295921699574148</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4032034709829088</v>
+        <v>0.4056129441164165</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>124</v>
@@ -4318,19 +4318,19 @@
         <v>131896</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>111053</v>
+        <v>113705</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>149820</v>
+        <v>152724</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3879883561605303</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3266759092984655</v>
+        <v>0.3344777860534866</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4407126546860002</v>
+        <v>0.4492558420266247</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>236</v>
@@ -4339,19 +4339,19 @@
         <v>243525</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>219521</v>
+        <v>219532</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>267435</v>
+        <v>270899</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.367866116573772</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3316051774180244</v>
+        <v>0.3316229984423044</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4039836784038885</v>
+        <v>0.409216874226189</v>
       </c>
     </row>
     <row r="15">
@@ -4443,19 +4443,19 @@
         <v>160541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>141310</v>
+        <v>140134</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>180735</v>
+        <v>181892</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4344069704150625</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3823711247326816</v>
+        <v>0.3791895260137769</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4890515613776706</v>
+        <v>0.4921808091945111</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>153</v>
@@ -4464,19 +4464,19 @@
         <v>163761</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>141557</v>
+        <v>144515</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>182472</v>
+        <v>184908</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4254807178869007</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3677903822411671</v>
+        <v>0.3754769191168111</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4740950002709398</v>
+        <v>0.4804259423014499</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>300</v>
@@ -4485,19 +4485,19 @@
         <v>324301</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>301018</v>
+        <v>295772</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>356546</v>
+        <v>350954</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4298532066651123</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3989912182018506</v>
+        <v>0.3920380834510994</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4725923559971676</v>
+        <v>0.4651800695662885</v>
       </c>
     </row>
     <row r="17">
@@ -4514,19 +4514,19 @@
         <v>149835</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>130074</v>
+        <v>132141</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>170657</v>
+        <v>170851</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4054388297042371</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3519668701093454</v>
+        <v>0.3575605712582267</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4617811568395827</v>
+        <v>0.4623054930007644</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>136</v>
@@ -4535,19 +4535,19 @@
         <v>138704</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>121438</v>
+        <v>120707</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>158641</v>
+        <v>158046</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3603787331330862</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3155176425105238</v>
+        <v>0.3136189892037209</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4121795799619398</v>
+        <v>0.4106316178349883</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>274</v>
@@ -4556,19 +4556,19 @@
         <v>288539</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>264514</v>
+        <v>261084</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>315432</v>
+        <v>317461</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3824512395943234</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3506063904757143</v>
+        <v>0.3460600041367494</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.418096669538411</v>
+        <v>0.4207864269495461</v>
       </c>
     </row>
     <row r="18">
@@ -4585,19 +4585,19 @@
         <v>59187</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45702</v>
+        <v>45984</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>75538</v>
+        <v>75000</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1601541998807004</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1236656800617343</v>
+        <v>0.1244273634350572</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2043975437264121</v>
+        <v>0.2029430916486218</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>78</v>
@@ -4606,19 +4606,19 @@
         <v>82419</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68754</v>
+        <v>67930</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>100252</v>
+        <v>99433</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2141405489800132</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1786350658014472</v>
+        <v>0.1764941504140037</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2604731905864735</v>
+        <v>0.2583440969262124</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>133</v>
@@ -4627,19 +4627,19 @@
         <v>141606</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>119546</v>
+        <v>120043</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>166366</v>
+        <v>165079</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1876955537405643</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1584556246667783</v>
+        <v>0.1591142741893531</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2205138309455032</v>
+        <v>0.2188076462391001</v>
       </c>
     </row>
     <row r="19">
@@ -4731,19 +4731,19 @@
         <v>25509</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16395</v>
+        <v>17212</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>35242</v>
+        <v>36869</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1199753811155329</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07711115274808769</v>
+        <v>0.08095168860723037</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1657530585636457</v>
+        <v>0.1734071829027113</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -4752,19 +4752,19 @@
         <v>30698</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20256</v>
+        <v>21119</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41900</v>
+        <v>43238</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.139794436781215</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0922443965926904</v>
+        <v>0.09617223405969992</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1908085688965831</v>
+        <v>0.1969023019680656</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>53</v>
@@ -4773,19 +4773,19 @@
         <v>56207</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>42689</v>
+        <v>42496</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>71854</v>
+        <v>72253</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1300447823919834</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0987697068660974</v>
+        <v>0.09832181551330786</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1662492721818993</v>
+        <v>0.1671707649848207</v>
       </c>
     </row>
     <row r="21">
@@ -4802,19 +4802,19 @@
         <v>66311</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>53962</v>
+        <v>53993</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>80837</v>
+        <v>80140</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3118798271303545</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2537969908824045</v>
+        <v>0.2539433972020268</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3801977378438828</v>
+        <v>0.3769219490353239</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>79</v>
@@ -4823,19 +4823,19 @@
         <v>80926</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>67579</v>
+        <v>66962</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>95549</v>
+        <v>95719</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3685304597659379</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3077502219818468</v>
+        <v>0.30493875633871</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4351234117581398</v>
+        <v>0.435894817773459</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>140</v>
@@ -4844,19 +4844,19 @@
         <v>147237</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>128395</v>
+        <v>127245</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>168292</v>
+        <v>167835</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3406621244403227</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2970671089317184</v>
+        <v>0.2944053417516453</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3893770658353229</v>
+        <v>0.3883200996363931</v>
       </c>
     </row>
     <row r="22">
@@ -4873,19 +4873,19 @@
         <v>120798</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>105467</v>
+        <v>105198</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>134899</v>
+        <v>135115</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5681447917541126</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4960397080791403</v>
+        <v>0.494772456108711</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6344659542927616</v>
+        <v>0.6354812713382609</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>105</v>
@@ -4894,19 +4894,19 @@
         <v>107967</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93935</v>
+        <v>92496</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>122475</v>
+        <v>122907</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4916751034528472</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.427770998228452</v>
+        <v>0.4212206380784907</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5577394201874416</v>
+        <v>0.5597103295749297</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>215</v>
@@ -4915,19 +4915,19 @@
         <v>228765</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>206896</v>
+        <v>206016</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>249194</v>
+        <v>252459</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5292930931676939</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4786939647632714</v>
+        <v>0.4766575674343879</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5765588769289226</v>
+        <v>0.5841124397759266</v>
       </c>
     </row>
     <row r="23">
@@ -5019,19 +5019,19 @@
         <v>33369</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23879</v>
+        <v>24363</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>45254</v>
+        <v>46453</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.121794848159674</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08715623755157538</v>
+        <v>0.08892380420540802</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1651717176046139</v>
+        <v>0.1695483134168426</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>28</v>
@@ -5040,19 +5040,19 @@
         <v>31032</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21775</v>
+        <v>21371</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>43205</v>
+        <v>42847</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1108169363319335</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07775999495855861</v>
+        <v>0.07631633765700348</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1542874500754956</v>
+        <v>0.1530080332315176</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>60</v>
@@ -5061,19 +5061,19 @@
         <v>64402</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>50702</v>
+        <v>50045</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>81068</v>
+        <v>81381</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1162459510295712</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09151834429265253</v>
+        <v>0.09033134550891662</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1463297326802597</v>
+        <v>0.1468948293208994</v>
       </c>
     </row>
     <row r="25">
@@ -5090,19 +5090,19 @@
         <v>125891</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>108566</v>
+        <v>109251</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>142886</v>
+        <v>143313</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4594870667168263</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.39625499041738</v>
+        <v>0.3987527582825059</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5215194399162978</v>
+        <v>0.5230766016179569</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>142</v>
@@ -5111,19 +5111,19 @@
         <v>147469</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>130852</v>
+        <v>131049</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>164962</v>
+        <v>164239</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5266170916229227</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4672764224383679</v>
+        <v>0.4679785938573464</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.589085674150931</v>
+        <v>0.5865022787045789</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>262</v>
@@ -5132,19 +5132,19 @@
         <v>273360</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>249669</v>
+        <v>249711</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>297902</v>
+        <v>297235</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4934186202208264</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4506570828316184</v>
+        <v>0.4507328195179079</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.537717197860304</v>
+        <v>0.5365139537723974</v>
       </c>
     </row>
     <row r="26">
@@ -5161,19 +5161,19 @@
         <v>114721</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>98356</v>
+        <v>97164</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>132614</v>
+        <v>130045</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4187180851234997</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3589865765812439</v>
+        <v>0.3546364816588972</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4840249812391655</v>
+        <v>0.4746498365351364</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>99</v>
@@ -5182,19 +5182,19 @@
         <v>101530</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>85183</v>
+        <v>85532</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>116072</v>
+        <v>116576</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3625659720451437</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3041903775861451</v>
+        <v>0.3054365172750087</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4144976637398654</v>
+        <v>0.4162970774802704</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>208</v>
@@ -5203,19 +5203,19 @@
         <v>216251</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>193140</v>
+        <v>191814</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>240792</v>
+        <v>240771</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3903354287496024</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3486213153905481</v>
+        <v>0.3462269725880925</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4346326877342238</v>
+        <v>0.4345951857313544</v>
       </c>
     </row>
     <row r="27">
@@ -5307,19 +5307,19 @@
         <v>109895</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>90616</v>
+        <v>92908</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>130117</v>
+        <v>132620</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1660834952741805</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1369469817114581</v>
+        <v>0.1404119546933877</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1966451098742405</v>
+        <v>0.2004280232739118</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>116</v>
@@ -5328,19 +5328,19 @@
         <v>127013</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>106404</v>
+        <v>106031</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>149428</v>
+        <v>150874</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1833151987456102</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1535703772236568</v>
+        <v>0.1530328188911624</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2156666635807478</v>
+        <v>0.2177532879319257</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>216</v>
@@ -5349,19 +5349,19 @@
         <v>236908</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>209189</v>
+        <v>207414</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>270319</v>
+        <v>270561</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1748976898373638</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.154433745432079</v>
+        <v>0.1531235384820695</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1995631313767623</v>
+        <v>0.1997420610866105</v>
       </c>
     </row>
     <row r="29">
@@ -5378,19 +5378,19 @@
         <v>368435</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>344150</v>
+        <v>338723</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>396705</v>
+        <v>393323</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5568128040399638</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5201120707714366</v>
+        <v>0.5119102966305322</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5995380671399808</v>
+        <v>0.5944256060535892</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>366</v>
@@ -5399,19 +5399,19 @@
         <v>397926</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>369396</v>
+        <v>369957</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>425138</v>
+        <v>423672</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5743186949109839</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5331406243101562</v>
+        <v>0.5339506696550216</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6135922362526544</v>
+        <v>0.6114765661965148</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>710</v>
@@ -5420,19 +5420,19 @@
         <v>766361</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>729804</v>
+        <v>727748</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>803907</v>
+        <v>803435</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5657672482941176</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5387785183941057</v>
+        <v>0.5372612170652198</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5934852743382452</v>
+        <v>0.5931373482696715</v>
       </c>
     </row>
     <row r="30">
@@ -5449,19 +5449,19 @@
         <v>183355</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>156993</v>
+        <v>159417</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>207426</v>
+        <v>207741</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2771037006858557</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2372619495973727</v>
+        <v>0.240926163467005</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3134820421860671</v>
+        <v>0.3139570863246565</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>153</v>
@@ -5470,19 +5470,19 @@
         <v>167927</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>145313</v>
+        <v>144726</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>190964</v>
+        <v>191956</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.242366106343406</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2097274345593853</v>
+        <v>0.2088797383796699</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.275614724755087</v>
+        <v>0.2770456450675859</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>326</v>
@@ -5491,19 +5491,19 @@
         <v>351283</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>322783</v>
+        <v>322317</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>387809</v>
+        <v>385514</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2593350618685186</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2382951762748493</v>
+        <v>0.2379512752009566</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2863008110281279</v>
+        <v>0.284606257714631</v>
       </c>
     </row>
     <row r="31">
@@ -5595,19 +5595,19 @@
         <v>467626</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>438601</v>
+        <v>437630</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>495998</v>
+        <v>494598</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6002140744808417</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5629604268312542</v>
+        <v>0.5617136964242315</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6366314630817087</v>
+        <v>0.6348341111453321</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>454</v>
@@ -5616,19 +5616,19 @@
         <v>493825</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>462200</v>
+        <v>465836</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>521737</v>
+        <v>521203</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6025710795943471</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5639813573987501</v>
+        <v>0.5684185840291951</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6366299201663714</v>
+        <v>0.6359782923217695</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>888</v>
@@ -5637,19 +5637,19 @@
         <v>961451</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>921388</v>
+        <v>920000</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1002651</v>
+        <v>1000590</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6014223827995679</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.576361447217139</v>
+        <v>0.5754933062516416</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6271948779574962</v>
+        <v>0.6259056769772567</v>
       </c>
     </row>
     <row r="33">
@@ -5666,19 +5666,19 @@
         <v>197216</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>171746</v>
+        <v>171472</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>225997</v>
+        <v>222579</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.253134137812464</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2204426824254211</v>
+        <v>0.22009073693474</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.290075159421473</v>
+        <v>0.2856880286538919</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>188</v>
@@ -5687,19 +5687,19 @@
         <v>206662</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>180517</v>
+        <v>182686</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>233293</v>
+        <v>231365</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2521711251417505</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2202684254524009</v>
+        <v>0.2229159053008207</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2846672802256989</v>
+        <v>0.2823147391318451</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>363</v>
@@ -5708,19 +5708,19 @@
         <v>403878</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>368817</v>
+        <v>367160</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>441323</v>
+        <v>442190</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2526404535966791</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2307082174222378</v>
+        <v>0.2296719506670712</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2760633070325335</v>
+        <v>0.2766060427138796</v>
       </c>
     </row>
     <row r="34">
@@ -5737,19 +5737,19 @@
         <v>114256</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>95372</v>
+        <v>95388</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>135655</v>
+        <v>136548</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1466517877066943</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1224139383179225</v>
+        <v>0.1224342510296893</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1741178125474788</v>
+        <v>0.1752648224476982</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>111</v>
@@ -5758,19 +5758,19 @@
         <v>119043</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>99522</v>
+        <v>99136</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>141852</v>
+        <v>141578</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1452577952639024</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1214378120648641</v>
+        <v>0.1209672286189888</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1730893147887708</v>
+        <v>0.1727555644226427</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>219</v>
@@ -5779,19 +5779,19 @@
         <v>233299</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>203450</v>
+        <v>205064</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>260462</v>
+        <v>261765</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1459371636037529</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1272654973058307</v>
+        <v>0.1282751273959059</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1629282164859513</v>
+        <v>0.1637438338983483</v>
       </c>
     </row>
     <row r="35">
@@ -5883,19 +5883,19 @@
         <v>1100975</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1041843</v>
+        <v>1045119</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1155466</v>
+        <v>1153301</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3228935142344891</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3055515732738434</v>
+        <v>0.3065122855590551</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3388746451957417</v>
+        <v>0.3382398267070387</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1073</v>
@@ -5904,19 +5904,19 @@
         <v>1166206</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1106805</v>
+        <v>1104799</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1220807</v>
+        <v>1222459</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3296400002024174</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.312849793591859</v>
+        <v>0.3122827593805887</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3450736138420546</v>
+        <v>0.3455405501869924</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2096</v>
@@ -5925,19 +5925,19 @@
         <v>2267181</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2176051</v>
+        <v>2178505</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2349029</v>
+        <v>2345655</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3263289548426631</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3132121946358293</v>
+        <v>0.3135653813926497</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3381099088747213</v>
+        <v>0.3376242125311077</v>
       </c>
     </row>
     <row r="37">
@@ -5954,19 +5954,19 @@
         <v>1453063</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1395723</v>
+        <v>1391091</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1514617</v>
+        <v>1518188</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4261540123482019</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4093372154095754</v>
+        <v>0.4079789163997334</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4442064019302701</v>
+        <v>0.4452538363913037</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1407</v>
@@ -5975,19 +5975,19 @@
         <v>1516622</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1455961</v>
+        <v>1459883</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1579051</v>
+        <v>1582306</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4286886880322768</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4115421008377171</v>
+        <v>0.4126506922961379</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4463349539886843</v>
+        <v>0.4472548362015411</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2770</v>
@@ -5996,19 +5996,19 @@
         <v>2969685</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2883016</v>
+        <v>2886640</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3064543</v>
+        <v>3058520</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4274447180303922</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4149699256033135</v>
+        <v>0.415491483018964</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4410981766728759</v>
+        <v>0.4402312794956362</v>
       </c>
     </row>
     <row r="38">
@@ -6025,19 +6025,19 @@
         <v>855676</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>802211</v>
+        <v>796681</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>905228</v>
+        <v>906704</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.250952473417309</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.235272111451682</v>
+        <v>0.2336503358055561</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.265484991429176</v>
+        <v>0.2659180264065812</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>799</v>
@@ -6046,19 +6046,19 @@
         <v>854989</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>805395</v>
+        <v>802432</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>904609</v>
+        <v>905975</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2416713117653058</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2276530502963438</v>
+        <v>0.2268156103246382</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2556970259576934</v>
+        <v>0.2560831756752246</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1607</v>
@@ -6067,19 +6067,19 @@
         <v>1710665</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1643760</v>
+        <v>1636226</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1784374</v>
+        <v>1788262</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2462263271269447</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2365962955726789</v>
+        <v>0.2355118895487988</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2568357713205783</v>
+        <v>0.2573953710409583</v>
       </c>
     </row>
     <row r="39">
@@ -6415,19 +6415,19 @@
         <v>126329</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109558</v>
+        <v>107829</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>144705</v>
+        <v>143298</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4387705240655823</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3805233868135226</v>
+        <v>0.3745161485543404</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.502595596332262</v>
+        <v>0.4977082420599417</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>127</v>
@@ -6436,19 +6436,19 @@
         <v>131594</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>115255</v>
+        <v>114705</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150152</v>
+        <v>150829</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4590088166500108</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4020181601886927</v>
+        <v>0.4000997330387216</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5237392255775775</v>
+        <v>0.5260998538536649</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>239</v>
@@ -6457,19 +6457,19 @@
         <v>257923</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>234591</v>
+        <v>234181</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>282710</v>
+        <v>283177</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4488681308142005</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4082640900818008</v>
+        <v>0.4075496748851705</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4920063677399854</v>
+        <v>0.4928180078018264</v>
       </c>
     </row>
     <row r="5">
@@ -6486,19 +6486,19 @@
         <v>117006</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>99516</v>
+        <v>100132</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134549</v>
+        <v>135999</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4063910957359319</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3456432587191143</v>
+        <v>0.3477819166952584</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4673235507270385</v>
+        <v>0.4723598353265336</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -6507,19 +6507,19 @@
         <v>106908</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91510</v>
+        <v>89331</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>124450</v>
+        <v>122621</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3729005707585074</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3191917906953667</v>
+        <v>0.3115917739392328</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4340908270671024</v>
+        <v>0.4277083536962172</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>206</v>
@@ -6528,19 +6528,19 @@
         <v>223914</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>201004</v>
+        <v>200670</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>249003</v>
+        <v>246936</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3896814770951281</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3498107380174768</v>
+        <v>0.349230853338214</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4333456178241006</v>
+        <v>0.429747881735877</v>
       </c>
     </row>
     <row r="6">
@@ -6557,19 +6557,19 @@
         <v>44580</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32839</v>
+        <v>32613</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58649</v>
+        <v>58033</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1548383801984859</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1140563450260496</v>
+        <v>0.1132718002592332</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2037033177522953</v>
+        <v>0.2015643610559681</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>48</v>
@@ -6578,19 +6578,19 @@
         <v>48190</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35733</v>
+        <v>36460</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60466</v>
+        <v>62064</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1680906125914819</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1246401487168544</v>
+        <v>0.1271751796326565</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2109085219070779</v>
+        <v>0.2164848701989821</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>90</v>
@@ -6599,19 +6599,19 @@
         <v>92771</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75367</v>
+        <v>75854</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>111637</v>
+        <v>111208</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1614503920906714</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1311625297392228</v>
+        <v>0.1320100415511932</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1942842972025325</v>
+        <v>0.1935368317353096</v>
       </c>
     </row>
     <row r="7">
@@ -6703,19 +6703,19 @@
         <v>97985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80739</v>
+        <v>80930</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>117783</v>
+        <v>116257</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1953614813894294</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1609760846646789</v>
+        <v>0.1613567658890243</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2348328356100979</v>
+        <v>0.2317911251119511</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>102</v>
@@ -6724,19 +6724,19 @@
         <v>112349</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>93033</v>
+        <v>93835</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>133453</v>
+        <v>132322</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2156194706420774</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1785486731146399</v>
+        <v>0.1800874801811923</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2561213391696374</v>
+        <v>0.2539513863185392</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>192</v>
@@ -6745,19 +6745,19 @@
         <v>210334</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>184003</v>
+        <v>185435</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>237708</v>
+        <v>237712</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2056835574998453</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1799347648020953</v>
+        <v>0.1813347402738821</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2324517743855687</v>
+        <v>0.232456238030333</v>
       </c>
     </row>
     <row r="9">
@@ -6774,19 +6774,19 @@
         <v>223163</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>201690</v>
+        <v>200013</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>247606</v>
+        <v>246273</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4449393541678897</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4021259591065947</v>
+        <v>0.3987820854223815</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4936723696166829</v>
+        <v>0.4910156725534268</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>228</v>
@@ -6795,19 +6795,19 @@
         <v>245136</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>223477</v>
+        <v>223911</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>268140</v>
+        <v>270377</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4704631118915704</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4288956595607302</v>
+        <v>0.4297286190226687</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5146124567812848</v>
+        <v>0.518905221711277</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>443</v>
@@ -6816,19 +6816,19 @@
         <v>468299</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>438335</v>
+        <v>434164</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>501841</v>
+        <v>499017</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4579445032259686</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4286426999589345</v>
+        <v>0.4245642173913756</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4907444196310098</v>
+        <v>0.4879829791470195</v>
       </c>
     </row>
     <row r="10">
@@ -6845,19 +6845,19 @@
         <v>180410</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>160354</v>
+        <v>159466</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>204539</v>
+        <v>203360</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.359699164442681</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3197106488368238</v>
+        <v>0.3179396783029337</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4078058052811535</v>
+        <v>0.4054561844705015</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>152</v>
@@ -6866,19 +6866,19 @@
         <v>163567</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>140427</v>
+        <v>142650</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>184818</v>
+        <v>186636</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3139174174663522</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2695065740233635</v>
+        <v>0.2737738786727644</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.354702396114405</v>
+        <v>0.358190515824249</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>321</v>
@@ -6887,19 +6887,19 @@
         <v>343978</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>315098</v>
+        <v>313743</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>377668</v>
+        <v>376122</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.336371939274186</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3081306639369789</v>
+        <v>0.3068053320230411</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3693170767383672</v>
+        <v>0.3678056916942596</v>
       </c>
     </row>
     <row r="11">
@@ -6991,19 +6991,19 @@
         <v>57961</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46745</v>
+        <v>45846</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>72749</v>
+        <v>71317</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.181943994886847</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.146735108083028</v>
+        <v>0.1439137058925944</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2283632674890953</v>
+        <v>0.2238704481990623</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>73</v>
@@ -7012,19 +7012,19 @@
         <v>72652</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>57683</v>
+        <v>58619</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>87833</v>
+        <v>87705</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2166094157828378</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1719781425122807</v>
+        <v>0.1747692750119774</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2618701737028798</v>
+        <v>0.2614893906893865</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>136</v>
@@ -7033,19 +7033,19 @@
         <v>130613</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>112018</v>
+        <v>110244</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>149494</v>
+        <v>149898</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1997230924232834</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1712884255718776</v>
+        <v>0.1685762411377631</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2285941071835393</v>
+        <v>0.2292119385662188</v>
       </c>
     </row>
     <row r="13">
@@ -7062,19 +7062,19 @@
         <v>173949</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>157298</v>
+        <v>156109</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>191964</v>
+        <v>191216</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5460383465828378</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4937693836629301</v>
+        <v>0.4900391166782258</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6025882284804005</v>
+        <v>0.6002424833727854</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>175</v>
@@ -7083,19 +7083,19 @@
         <v>175382</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>156766</v>
+        <v>157163</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>193909</v>
+        <v>193471</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5228932282805269</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4673915971458472</v>
+        <v>0.4685739804768997</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5781299343088191</v>
+        <v>0.5768238101220936</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>359</v>
@@ -7104,19 +7104,19 @@
         <v>349331</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>325968</v>
+        <v>324255</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>372513</v>
+        <v>375111</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5341677474337954</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4984434771448064</v>
+        <v>0.4958244964247165</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5696166367808239</v>
+        <v>0.5735883257623333</v>
       </c>
     </row>
     <row r="14">
@@ -7133,19 +7133,19 @@
         <v>86655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71469</v>
+        <v>71635</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>103145</v>
+        <v>102883</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2720176585303152</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2243479050940587</v>
+        <v>0.2248672722911164</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3237814839468697</v>
+        <v>0.3229587076518599</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -7154,19 +7154,19 @@
         <v>87373</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>72077</v>
+        <v>72667</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>105135</v>
+        <v>104661</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2604973559366353</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2148943134807707</v>
+        <v>0.2166543088942783</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3134552004840736</v>
+        <v>0.3120425966965296</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>171</v>
@@ -7175,19 +7175,19 @@
         <v>174028</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>153548</v>
+        <v>150277</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>196147</v>
+        <v>195140</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2661091601429212</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2347921892008216</v>
+        <v>0.2297913750247793</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.299932177044735</v>
+        <v>0.2983919185662633</v>
       </c>
     </row>
     <row r="15">
@@ -7279,19 +7279,19 @@
         <v>170298</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>151582</v>
+        <v>151631</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>191381</v>
+        <v>190441</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4661016407040465</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4148764170923546</v>
+        <v>0.4150124298889487</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5238073532264134</v>
+        <v>0.5212335844882348</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>181</v>
@@ -7300,19 +7300,19 @@
         <v>196470</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>176097</v>
+        <v>176821</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>218413</v>
+        <v>216968</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5117459418254621</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4586790200121127</v>
+        <v>0.4605650208588357</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5689009132721718</v>
+        <v>0.5651365973704681</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>350</v>
@@ -7321,19 +7321,19 @@
         <v>366768</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>339880</v>
+        <v>338606</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>395197</v>
+        <v>394018</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4894889488756831</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4536050570039389</v>
+        <v>0.4519040395901173</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5274310468232184</v>
+        <v>0.5258566683562093</v>
       </c>
     </row>
     <row r="17">
@@ -7350,19 +7350,19 @@
         <v>143213</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>123926</v>
+        <v>125052</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>161650</v>
+        <v>162314</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3919704125636734</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3391829332543091</v>
+        <v>0.3422648303311682</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4424328000782306</v>
+        <v>0.444250978672191</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>119</v>
@@ -7371,19 +7371,19 @@
         <v>128833</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>109325</v>
+        <v>109953</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>147676</v>
+        <v>147569</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3355721901128403</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2847586565799832</v>
+        <v>0.2863937381416047</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3846509227446617</v>
+        <v>0.3843733686938568</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>250</v>
@@ -7392,19 +7392,19 @@
         <v>272046</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>245583</v>
+        <v>244943</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>299033</v>
+        <v>300281</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3630729910590358</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3277551499226025</v>
+        <v>0.3269021074016714</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3990904337838957</v>
+        <v>0.4007556051151443</v>
       </c>
     </row>
     <row r="18">
@@ -7421,19 +7421,19 @@
         <v>51856</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>39738</v>
+        <v>37528</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>65838</v>
+        <v>64059</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1419279467322801</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1087634610292822</v>
+        <v>0.1027138726649973</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1801979395595398</v>
+        <v>0.1753295122833341</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -7442,19 +7442,19 @@
         <v>58618</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>45355</v>
+        <v>46397</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74868</v>
+        <v>75280</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1526818680616976</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1181366462893824</v>
+        <v>0.1208499215313063</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1950081866783331</v>
+        <v>0.1960809308027151</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>105</v>
@@ -7463,19 +7463,19 @@
         <v>110473</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>92014</v>
+        <v>91664</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>132600</v>
+        <v>132008</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1474380600652811</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1228021541584965</v>
+        <v>0.1223348218720382</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1769683155288643</v>
+        <v>0.1761782896746736</v>
       </c>
     </row>
     <row r="19">
@@ -7567,19 +7567,19 @@
         <v>129058</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113513</v>
+        <v>115115</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>142687</v>
+        <v>144192</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6110075391327739</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5374152547746595</v>
+        <v>0.5449962828816384</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6755365139302939</v>
+        <v>0.6826582607434849</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>146</v>
@@ -7588,19 +7588,19 @@
         <v>142209</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>128402</v>
+        <v>128028</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>156280</v>
+        <v>156098</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.650581021865014</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5874199221424877</v>
+        <v>0.5857090688395316</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7149555044703944</v>
+        <v>0.714125178957178</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>278</v>
@@ -7609,19 +7609,19 @@
         <v>271266</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>251148</v>
+        <v>250818</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>292292</v>
+        <v>289495</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.631133383474982</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5843249020626365</v>
+        <v>0.5835582197837389</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6800535891012564</v>
+        <v>0.6735441305347826</v>
       </c>
     </row>
     <row r="21">
@@ -7638,19 +7638,19 @@
         <v>56092</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>42972</v>
+        <v>43293</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>69705</v>
+        <v>69028</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2655611855881603</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2034440679251508</v>
+        <v>0.2049630628223512</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3300107790426779</v>
+        <v>0.3268065420563511</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>56</v>
@@ -7659,19 +7659,19 @@
         <v>56338</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>43707</v>
+        <v>44063</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>70019</v>
+        <v>69668</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.257737516222265</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.199951308183804</v>
+        <v>0.2015824968875402</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3203244615009284</v>
+        <v>0.3187192161413526</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>110</v>
@@ -7680,19 +7680,19 @@
         <v>112430</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>93286</v>
+        <v>94853</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>129769</v>
+        <v>130907</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2615823103168506</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2170411086831424</v>
+        <v>0.2206858052316034</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3019233212123898</v>
+        <v>0.304571443474629</v>
       </c>
     </row>
     <row r="22">
@@ -7709,19 +7709,19 @@
         <v>26071</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17185</v>
+        <v>18196</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36503</v>
+        <v>36786</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1234312752790658</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08136049836219034</v>
+        <v>0.08614747742639975</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1728207009867914</v>
+        <v>0.1741577985801946</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -7730,19 +7730,19 @@
         <v>20040</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12947</v>
+        <v>12008</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29525</v>
+        <v>29052</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09168146191272097</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05922939274797496</v>
+        <v>0.05493362450528406</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.13507228055576</v>
+        <v>0.1329086122399511</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>47</v>
@@ -7751,19 +7751,19 @@
         <v>46112</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34333</v>
+        <v>34866</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>59973</v>
+        <v>60719</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1072843062081673</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0798797740987271</v>
+        <v>0.08112011613014107</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1395334733248023</v>
+        <v>0.1412697284429345</v>
       </c>
     </row>
     <row r="23">
@@ -7855,19 +7855,19 @@
         <v>56342</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>44193</v>
+        <v>43320</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>70170</v>
+        <v>68866</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2141286783616333</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1679550632859155</v>
+        <v>0.1646368150801447</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2666808610964115</v>
+        <v>0.2617251159882408</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>70</v>
@@ -7876,19 +7876,19 @@
         <v>74299</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>62084</v>
+        <v>61300</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>89938</v>
+        <v>91459</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2730775467241089</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2281840996313254</v>
+        <v>0.2253023297550881</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3305564045758683</v>
+        <v>0.3361464841629648</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>125</v>
@@ -7897,19 +7897,19 @@
         <v>130641</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>111744</v>
+        <v>110982</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>151277</v>
+        <v>153076</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2440963910153731</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2087880647114554</v>
+        <v>0.2073645242342255</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2826526361176179</v>
+        <v>0.2860139434855155</v>
       </c>
     </row>
     <row r="25">
@@ -7926,19 +7926,19 @@
         <v>120765</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>105588</v>
+        <v>105339</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>137861</v>
+        <v>137246</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4589664118779793</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4012876885695072</v>
+        <v>0.4003430020204961</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5239402648803567</v>
+        <v>0.5216029544482673</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>126</v>
@@ -7947,19 +7947,19 @@
         <v>131814</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>114848</v>
+        <v>115475</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>147222</v>
+        <v>147872</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4844682001315332</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4221100617442824</v>
+        <v>0.4244142911525179</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.541097634135657</v>
+        <v>0.5434872809543204</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>246</v>
@@ -7968,19 +7968,19 @@
         <v>252579</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>229492</v>
+        <v>229640</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>276385</v>
+        <v>274578</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4719307025211819</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4287951079130503</v>
+        <v>0.4290702680629563</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5164107133364686</v>
+        <v>0.5130346678295399</v>
       </c>
     </row>
     <row r="26">
@@ -7997,19 +7997,19 @@
         <v>86016</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>70614</v>
+        <v>71195</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>100752</v>
+        <v>102304</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3269049097603874</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2683689274482723</v>
+        <v>0.2705752568318764</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3829101939479074</v>
+        <v>0.3888063607191811</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>66</v>
@@ -8018,19 +8018,19 @@
         <v>65967</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>52481</v>
+        <v>52452</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>80767</v>
+        <v>79978</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2424542531443579</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1928864722979355</v>
+        <v>0.192780412660452</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2968493987508302</v>
+        <v>0.2939485092388314</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>150</v>
@@ -8039,19 +8039,19 @@
         <v>151983</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>132232</v>
+        <v>133114</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>172352</v>
+        <v>175270</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2839729064634451</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2470683464314045</v>
+        <v>0.2487160393064578</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3220302798610326</v>
+        <v>0.327482724219301</v>
       </c>
     </row>
     <row r="27">
@@ -8143,19 +8143,19 @@
         <v>199083</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>174903</v>
+        <v>175229</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>224037</v>
+        <v>225870</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3032229885657003</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2663932056632938</v>
+        <v>0.2668900909055041</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3412301932333578</v>
+        <v>0.344022019588309</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>197</v>
@@ -8164,19 +8164,19 @@
         <v>212369</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>187387</v>
+        <v>189203</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>239016</v>
+        <v>237192</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3091047663984803</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2727433706596387</v>
+        <v>0.2753863819443247</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3478897593105924</v>
+        <v>0.3452355612670241</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>369</v>
@@ -8185,19 +8185,19 @@
         <v>411452</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>380935</v>
+        <v>376318</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>450411</v>
+        <v>446162</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3062306084365869</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.283517612605804</v>
+        <v>0.2800815457246726</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3352261336532024</v>
+        <v>0.3320636792650365</v>
       </c>
     </row>
     <row r="29">
@@ -8214,19 +8214,19 @@
         <v>308103</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>280726</v>
+        <v>282867</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>333513</v>
+        <v>334742</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4692703021877782</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4275723044038923</v>
+        <v>0.4308325306635989</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5079716766537535</v>
+        <v>0.509843260909787</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>306</v>
@@ -8235,19 +8235,19 @@
         <v>323856</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>297072</v>
+        <v>297252</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>351768</v>
+        <v>347580</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4713754599095296</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4323901823464151</v>
+        <v>0.4326526901152121</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5120019396786251</v>
+        <v>0.5059050509796204</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>579</v>
@@ -8256,19 +8256,19 @@
         <v>631959</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>595010</v>
+        <v>596402</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>672264</v>
+        <v>667743</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4703467648450386</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4428467897529275</v>
+        <v>0.4438823734051677</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5003443536529742</v>
+        <v>0.4969796412619461</v>
       </c>
     </row>
     <row r="30">
@@ -8285,19 +8285,19 @@
         <v>149371</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>126789</v>
+        <v>128138</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>170211</v>
+        <v>171777</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2275067092465215</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1931115720572276</v>
+        <v>0.1951656193865312</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.259247953445717</v>
+        <v>0.2616328008758586</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>139</v>
@@ -8306,19 +8306,19 @@
         <v>150820</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>130566</v>
+        <v>127266</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>173241</v>
+        <v>173692</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2195197736919901</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1900405099674917</v>
+        <v>0.1852365755463508</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2521539664878493</v>
+        <v>0.2528106692270902</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>274</v>
@@ -8327,19 +8327,19 @@
         <v>300191</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>266964</v>
+        <v>270580</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>330908</v>
+        <v>332876</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2234226267183745</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1986924062944872</v>
+        <v>0.2013840022337777</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2462842266707086</v>
+        <v>0.2477486478543777</v>
       </c>
     </row>
     <row r="31">
@@ -8431,19 +8431,19 @@
         <v>427988</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>397896</v>
+        <v>401042</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>456332</v>
+        <v>455447</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.550468468600594</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5117648673195104</v>
+        <v>0.5158119132487869</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5869239212844044</v>
+        <v>0.5857856119497882</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>428</v>
@@ -8452,19 +8452,19 @@
         <v>467066</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>436985</v>
+        <v>436727</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>496281</v>
+        <v>494632</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5662560932849036</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5297868666881231</v>
+        <v>0.529475024240009</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6016760880100176</v>
+        <v>0.5996765541008463</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>845</v>
@@ -8473,19 +8473,19 @@
         <v>895053</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>853824</v>
+        <v>854552</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>934989</v>
+        <v>938250</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5585954727056204</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5328645939847008</v>
+        <v>0.5333192025795812</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5835190244176178</v>
+        <v>0.5855542099499941</v>
       </c>
     </row>
     <row r="33">
@@ -8502,19 +8502,19 @@
         <v>194005</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>169453</v>
+        <v>171398</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>219698</v>
+        <v>217416</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.249525365984039</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2179469011462115</v>
+        <v>0.2204478290566318</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2825708484753645</v>
+        <v>0.2796362622912603</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>169</v>
@@ -8523,19 +8523,19 @@
         <v>185486</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>162396</v>
+        <v>162731</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>212320</v>
+        <v>212873</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2248772216287389</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1968844028902334</v>
+        <v>0.1972905407400775</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2574097662773636</v>
+        <v>0.2580805646912581</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>355</v>
@@ -8544,19 +8544,19 @@
         <v>379491</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>344770</v>
+        <v>342989</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>417967</v>
+        <v>414375</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2368372273715288</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2151683880624979</v>
+        <v>0.2140565105975116</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2608500761215973</v>
+        <v>0.2586080138071116</v>
       </c>
     </row>
     <row r="34">
@@ -8573,19 +8573,19 @@
         <v>155504</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>133696</v>
+        <v>133660</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>179463</v>
+        <v>176987</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2000061654153671</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.171957546504614</v>
+        <v>0.1719108244417236</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2308211079306295</v>
+        <v>0.2276374874997975</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>157</v>
@@ -8594,19 +8594,19 @@
         <v>172280</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>149223</v>
+        <v>148699</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>199020</v>
+        <v>197635</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2088666850863576</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1809133077384513</v>
+        <v>0.1802779426498071</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2412854073634053</v>
+        <v>0.2396062727209511</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>303</v>
@@ -8615,19 +8615,19 @@
         <v>327784</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>297205</v>
+        <v>297487</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>366216</v>
+        <v>368286</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2045672999228509</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1854833238903686</v>
+        <v>0.1856591238550233</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2285525012142747</v>
+        <v>0.2298440573647183</v>
       </c>
     </row>
     <row r="35">
@@ -8719,19 +8719,19 @@
         <v>1265044</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1211029</v>
+        <v>1207307</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1319397</v>
+        <v>1327374</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3740735745445266</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3581014671436388</v>
+        <v>0.3570007669712781</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3901460036024207</v>
+        <v>0.3925047595059624</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1324</v>
@@ -8740,19 +8740,19 @@
         <v>1409008</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1349141</v>
+        <v>1350875</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1474094</v>
+        <v>1467232</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3991957638732372</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.382234376045965</v>
+        <v>0.3827257972405584</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4176355911880035</v>
+        <v>0.4156915076969925</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2534</v>
@@ -8761,19 +8761,19 @@
         <v>2674052</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2583894</v>
+        <v>2592735</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2754132</v>
+        <v>2768869</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3869033096662841</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3738586134924306</v>
+        <v>0.3751377224368039</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3984899145473121</v>
+        <v>0.4006221993482648</v>
       </c>
     </row>
     <row r="37">
@@ -8790,19 +8790,19 @@
         <v>1336296</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1276263</v>
+        <v>1278578</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1389476</v>
+        <v>1394806</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3951429242186514</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3773910753426789</v>
+        <v>0.3780756379299269</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4108683356862512</v>
+        <v>0.4124444170189679</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1279</v>
@@ -8811,19 +8811,19 @@
         <v>1353753</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1292599</v>
+        <v>1293260</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1419889</v>
+        <v>1412902</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3835411743183486</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3662151527300466</v>
+        <v>0.366402457672344</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.402278591181563</v>
+        <v>0.4002989246250986</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2548</v>
@@ -8832,19 +8832,19 @@
         <v>2690049</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2605485</v>
+        <v>2602122</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2779027</v>
+        <v>2770652</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3892179876527266</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3769825989738436</v>
+        <v>0.3764959196206603</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4020920328156769</v>
+        <v>0.4008802851070991</v>
       </c>
     </row>
     <row r="38">
@@ -8861,19 +8861,19 @@
         <v>780465</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>725749</v>
+        <v>730313</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>828949</v>
+        <v>834066</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.230783501236822</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2146040806263959</v>
+        <v>0.2159535827787968</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2451203795948341</v>
+        <v>0.2466335905493513</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>721</v>
@@ -8882,19 +8882,19 @@
         <v>766855</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>712489</v>
+        <v>715172</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>819508</v>
+        <v>818400</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2172630618084142</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2018600705735704</v>
+        <v>0.202620206039649</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2321805344251913</v>
+        <v>0.2318666066807732</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1461</v>
@@ -8903,19 +8903,19 @@
         <v>1547320</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1477386</v>
+        <v>1470218</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1624201</v>
+        <v>1618247</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2238787026809892</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.213760074866412</v>
+        <v>0.2127230177081185</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2350024330045413</v>
+        <v>0.234141065088458</v>
       </c>
     </row>
     <row r="39">
